--- a/CompLaagBond/test-files/test_bk-indoor-teams_f4_1234.xlsx
+++ b/CompLaagBond/test-files/test_bk-indoor-teams_f4_1234.xlsx
@@ -1351,7 +1351,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1639,6 +1639,10 @@
     <xf numFmtId="169" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2796,8 +2800,8 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.11328125" defaultRowHeight="12.75" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2968,7 +2972,7 @@
         <v>75</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>8.241</v>
+        <v>8.541</v>
       </c>
       <c r="H10" s="33" t="n">
         <v>263</v>
@@ -2986,14 +2990,14 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
       <c r="D11" s="69"/>
-      <c r="E11" s="33" t="n">
+      <c r="E11" s="72" t="n">
         <v>301827</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>8.291</v>
+        <v>8.766</v>
       </c>
       <c r="H11" s="33" t="n">
         <v>269</v>
@@ -3018,7 +3022,7 @@
         <v>77</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>8.366</v>
+        <v>8.641</v>
       </c>
       <c r="H12" s="33" t="n">
         <v>258</v>
@@ -3063,7 +3067,7 @@
       <c r="D14" s="69"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="72"/>
+      <c r="G14" s="73"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="K14" s="43"/>
@@ -3102,7 +3106,7 @@
         <v>81</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>8.271</v>
+        <v>8.642</v>
       </c>
       <c r="H16" s="33" t="n">
         <v>258</v>
@@ -3127,7 +3131,7 @@
         <v>82</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>8.321</v>
+        <v>8.467</v>
       </c>
       <c r="H17" s="33" t="n">
         <v>247</v>
@@ -3152,7 +3156,7 @@
         <v>83</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>8.396</v>
+        <v>8.717</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>246</v>
@@ -3191,7 +3195,7 @@
       <c r="D20" s="69"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="72"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="K20" s="43"/>
@@ -3230,7 +3234,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="34" t="n">
-        <v>7.275</v>
+        <v>8.341</v>
       </c>
       <c r="H22" s="33" t="n">
         <v>255</v>
@@ -3255,7 +3259,7 @@
         <v>88</v>
       </c>
       <c r="G23" s="34" t="n">
-        <v>7.325</v>
+        <v>8.391</v>
       </c>
       <c r="H23" s="33" t="n">
         <v>249</v>
@@ -3280,7 +3284,7 @@
         <v>89</v>
       </c>
       <c r="G24" s="34" t="n">
-        <v>7.35</v>
+        <v>8.266</v>
       </c>
       <c r="H24" s="33" t="n">
         <v>0</v>
@@ -3305,7 +3309,7 @@
         <v>90</v>
       </c>
       <c r="G25" s="34" t="n">
-        <v>7.4</v>
+        <v>8.466</v>
       </c>
       <c r="H25" s="33" t="n">
         <v>200</v>
@@ -3325,7 +3329,7 @@
       <c r="D26" s="69"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="72"/>
+      <c r="G26" s="73"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="K26" s="43"/>
@@ -3364,7 +3368,7 @@
         <v>92</v>
       </c>
       <c r="G28" s="34" t="n">
-        <v>7.275</v>
+        <v>8.717</v>
       </c>
       <c r="H28" s="33" t="n">
         <v>242</v>
@@ -3389,7 +3393,7 @@
         <v>93</v>
       </c>
       <c r="G29" s="34" t="n">
-        <v>7.325</v>
+        <v>8.767</v>
       </c>
       <c r="H29" s="33" t="n">
         <v>220</v>
@@ -3414,7 +3418,7 @@
         <v>94</v>
       </c>
       <c r="G30" s="34" t="n">
-        <v>7.35</v>
+        <v>8.817</v>
       </c>
       <c r="H30" s="33" t="n">
         <v>221</v>
@@ -3439,7 +3443,7 @@
         <v>95</v>
       </c>
       <c r="G31" s="34" t="n">
-        <v>7.35</v>
+        <v>8.541</v>
       </c>
       <c r="H31" s="33" t="n">
         <v>10</v>
@@ -3459,7 +3463,7 @@
       <c r="D32" s="67"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="72"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="K32" s="43"/>
@@ -3549,11 +3553,11 @@
       <c r="B38" s="66"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
-      <c r="E38" s="73"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="49"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
       <c r="K38" s="43"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,16 +3565,16 @@
         <v>6</v>
       </c>
       <c r="C39" s="67"/>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="76" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="67"/>
-      <c r="F39" s="75" t="s">
+      <c r="F39" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="76"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="37"/>
       <c r="K39" s="71" t="n">
         <f aca="false">IF(COUNTA(J40:J43)&lt;3,0,IF(COUNTA(J40:J43)=3,SUM(J40:J43),IF(SUM(J40:J43)&gt;0,SUM(J40:J43)-MINA(J40:J43),0)))</f>
@@ -3657,11 +3661,11 @@
       <c r="B44" s="66"/>
       <c r="C44" s="67"/>
       <c r="D44" s="67"/>
-      <c r="E44" s="73"/>
+      <c r="E44" s="74"/>
       <c r="F44" s="49"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
       <c r="K44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,9 +3680,9 @@
       <c r="F45" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="76"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="37"/>
       <c r="K45" s="71" t="n">
         <f aca="false">IF(COUNTA(J46:J49)&lt;3,0,IF(COUNTA(J46:J49)=3,SUM(J46:J49),IF(SUM(J46:J49)&gt;0,SUM(J46:J49)-MINA(J46:J49),0)))</f>
@@ -3765,11 +3769,11 @@
       <c r="B50" s="66"/>
       <c r="C50" s="67"/>
       <c r="D50" s="67"/>
-      <c r="E50" s="73"/>
+      <c r="E50" s="74"/>
       <c r="F50" s="49"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
       <c r="K50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,9 +3788,9 @@
       <c r="F51" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="76"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="37"/>
       <c r="K51" s="71" t="n">
         <f aca="false">IF(COUNTA(J52:J55)&lt;3,0,IF(COUNTA(J52:J55)=3,SUM(J52:J55),IF(SUM(J52:J55)&gt;0,SUM(J52:J55)-MINA(J52:J55),0)))</f>
@@ -3873,11 +3877,11 @@
       <c r="B56" s="66"/>
       <c r="C56" s="67"/>
       <c r="D56" s="67"/>
-      <c r="E56" s="73"/>
+      <c r="E56" s="74"/>
       <c r="F56" s="49"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
       <c r="K56" s="43"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,9 +3896,9 @@
       <c r="F57" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G57" s="76"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
       <c r="J57" s="37"/>
       <c r="K57" s="71" t="n">
         <f aca="false">IF(COUNTA(J58:J61)&lt;3,0,IF(COUNTA(J58:J61)=3,SUM(J58:J61),IF(SUM(J58:J61)&gt;0,SUM(J58:J61)-MINA(J58:J61),0)))</f>
@@ -3978,16 +3982,16 @@
       <c r="K61" s="43"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
       <c r="F62" s="32"/>
-      <c r="G62" s="79"/>
+      <c r="G62" s="80"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="80"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="81"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="66" t="n">
@@ -4088,8 +4092,8 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="63"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
       <c r="K68" s="43"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4104,9 +4108,9 @@
       <c r="F69" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G69" s="76"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
       <c r="J69" s="37"/>
       <c r="K69" s="71" t="n">
         <f aca="false">IF(COUNTA(J70:J73)&lt;3,0,IF(COUNTA(J70:J73)=3,SUM(J70:J73),IF(SUM(J70:J73)&gt;0,SUM(J70:J73)-MINA(J70:J73),0)))</f>
@@ -4191,8 +4195,8 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="63"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
       <c r="K74" s="43"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,9 +4211,9 @@
       <c r="F75" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G75" s="76"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
       <c r="J75" s="37"/>
       <c r="K75" s="71" t="n">
         <f aca="false">IF(COUNTA(J76:J79)&lt;3,0,IF(COUNTA(J76:J79)=3,SUM(J76:J79),IF(SUM(J76:J79)&gt;0,SUM(J76:J79)-MINA(J76:J79),0)))</f>
@@ -4293,20 +4297,20 @@
       <c r="K79" s="43"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="81"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="85"/>
-      <c r="I80" s="85"/>
-      <c r="J80" s="85"/>
-      <c r="K80" s="86"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="86"/>
+      <c r="I80" s="86"/>
+      <c r="J80" s="86"/>
+      <c r="K80" s="87"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="87" t="s">
+      <c r="B82" s="88" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4342,1104 +4346,1104 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="88" width="2.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="89" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="88" width="29.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="88" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="88" width="1.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="88" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="88" width="1.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="15" style="88" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="88" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="88" width="6.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="88" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="88" width="2.22"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="88" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="88" width="3.66"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16384" min="26" style="88" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="2.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="90" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="89" width="29.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="89" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="89" width="1.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="89" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="89" width="1.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="15" style="89" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="89" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="89" width="6.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="89" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="89" width="2.22"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="89" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="89" width="3.66"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16384" min="26" style="89" width="9.77"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="91" t="str">
         <f aca="false">'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Compound klasse X</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
     </row>
     <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="91" t="s">
+      <c r="A4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="92" t="str">
+      <c r="P4" s="93" t="str">
         <f aca="false">'Deelnemers en Scores'!H4</f>
         <v>yyyy-mm-dd</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="96" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="96" t="s">
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="98" t="s">
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="T7" s="99"/>
-      <c r="U7" s="100" t="s">
+      <c r="T7" s="100"/>
+      <c r="U7" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="V7" s="101" t="s">
+      <c r="V7" s="102" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="89"/>
-      <c r="B8" s="102" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="104" t="n">
+      <c r="E8" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="105" t="n">
+      <c r="F8" s="106" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="105" t="n">
+      <c r="G8" s="106" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="106" t="n">
+      <c r="H8" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="107"/>
-      <c r="J8" s="104" t="n">
+      <c r="I8" s="108"/>
+      <c r="J8" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="105" t="n">
+      <c r="K8" s="106" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="105" t="n">
+      <c r="L8" s="106" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="106" t="n">
+      <c r="M8" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="104" t="n">
+      <c r="N8" s="108"/>
+      <c r="O8" s="105" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="105" t="n">
+      <c r="P8" s="106" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" s="105" t="n">
+      <c r="Q8" s="106" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="106" t="n">
+      <c r="R8" s="107" t="n">
         <v>4</v>
       </c>
-      <c r="S8" s="108" t="s">
+      <c r="S8" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="T8" s="109"/>
-      <c r="U8" s="110" t="s">
+      <c r="T8" s="110"/>
+      <c r="U8" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="V8" s="111"/>
+      <c r="V8" s="112"/>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89"/>
-      <c r="B9" s="112" t="n">
+      <c r="A9" s="90"/>
+      <c r="B9" s="113" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B9&gt;0,'Deelnemers en Scores'!B9,"")</f>
         <v>1</v>
       </c>
-      <c r="C9" s="113" t="str">
+      <c r="C9" s="114" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F9="","",'Deelnemers en Scores'!F9)</f>
         <v>team-4091-2-C</v>
       </c>
-      <c r="D9" s="114" t="str">
+      <c r="D9" s="115" t="str">
         <f aca="false">'Deelnemers en Scores'!D9</f>
         <v>[4091] Club 4091</v>
       </c>
-      <c r="E9" s="115" t="n">
+      <c r="E9" s="116" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H10=0,"",'Deelnemers en Scores'!H10)</f>
         <v>263</v>
       </c>
-      <c r="F9" s="115" t="n">
+      <c r="F9" s="116" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H11=0,"",'Deelnemers en Scores'!H11)</f>
         <v>269</v>
       </c>
-      <c r="G9" s="115" t="n">
+      <c r="G9" s="116" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H12=0,"",'Deelnemers en Scores'!H12)</f>
         <v>258</v>
       </c>
-      <c r="H9" s="115" t="str">
+      <c r="H9" s="116" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H13=0,"",'Deelnemers en Scores'!H13)</f>
         <v/>
       </c>
-      <c r="I9" s="116"/>
-      <c r="J9" s="115" t="n">
+      <c r="I9" s="117"/>
+      <c r="J9" s="116" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I10=0,"",'Deelnemers en Scores'!I10)</f>
         <v>271</v>
       </c>
-      <c r="K9" s="115" t="n">
+      <c r="K9" s="116" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I11=0,"",'Deelnemers en Scores'!I11)</f>
         <v>265</v>
       </c>
-      <c r="L9" s="115" t="n">
+      <c r="L9" s="116" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I12=0,"",'Deelnemers en Scores'!I12)</f>
         <v>258</v>
       </c>
-      <c r="M9" s="115" t="str">
+      <c r="M9" s="116" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I13=0,"",'Deelnemers en Scores'!I13)</f>
         <v/>
       </c>
-      <c r="N9" s="116"/>
-      <c r="O9" s="117" t="n">
+      <c r="N9" s="117"/>
+      <c r="O9" s="118" t="n">
         <f aca="false">IF(ISNUMBER(J9),E9+J9,"")</f>
         <v>534</v>
       </c>
-      <c r="P9" s="118" t="n">
+      <c r="P9" s="119" t="n">
         <f aca="false">IF(ISNUMBER(K9),F9+K9,"")</f>
         <v>534</v>
       </c>
-      <c r="Q9" s="118" t="n">
+      <c r="Q9" s="119" t="n">
         <f aca="false">IF(ISNUMBER(L9),G9+L9,"")</f>
         <v>516</v>
       </c>
-      <c r="R9" s="119" t="str">
+      <c r="R9" s="120" t="str">
         <f aca="false">IF(ISNUMBER(M9),H9+M9,"")</f>
         <v/>
       </c>
-      <c r="S9" s="120" t="n">
+      <c r="S9" s="121" t="n">
         <f aca="false">IF(COUNT(O9:R9)&lt;4,SUM(O9:R9),SUM(O9:R9)-MIN(O9:R9))</f>
         <v>1584</v>
       </c>
       <c r="T9" s="1"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="122" t="n">
+      <c r="U9" s="122"/>
+      <c r="V9" s="123" t="n">
         <f aca="false">S9+(U9/1000)</f>
         <v>1584</v>
       </c>
-      <c r="X9" s="123"/>
+      <c r="X9" s="124"/>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="89"/>
-      <c r="B10" s="124" t="n">
+      <c r="A10" s="90"/>
+      <c r="B10" s="125" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B15&gt;0,'Deelnemers en Scores'!B15,"")</f>
         <v>2</v>
       </c>
-      <c r="C10" s="125" t="str">
+      <c r="C10" s="126" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F15="","",'Deelnemers en Scores'!F15)</f>
         <v>team-4092-2-C</v>
       </c>
-      <c r="D10" s="126" t="str">
+      <c r="D10" s="127" t="str">
         <f aca="false">'Deelnemers en Scores'!D15</f>
         <v>[4092] Club 4092</v>
       </c>
-      <c r="E10" s="127" t="n">
+      <c r="E10" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H16=0,"",'Deelnemers en Scores'!H16)</f>
         <v>258</v>
       </c>
-      <c r="F10" s="127" t="n">
+      <c r="F10" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H17=0,"",'Deelnemers en Scores'!H17)</f>
         <v>247</v>
       </c>
-      <c r="G10" s="127" t="n">
+      <c r="G10" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H18=0,"",'Deelnemers en Scores'!H18)</f>
         <v>246</v>
       </c>
-      <c r="H10" s="127" t="str">
+      <c r="H10" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H19=0,"",'Deelnemers en Scores'!H19)</f>
         <v/>
       </c>
-      <c r="I10" s="116"/>
-      <c r="J10" s="127" t="n">
+      <c r="I10" s="117"/>
+      <c r="J10" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I16=0,"",'Deelnemers en Scores'!I16)</f>
         <v>255</v>
       </c>
-      <c r="K10" s="127" t="n">
+      <c r="K10" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I17=0,"",'Deelnemers en Scores'!I17)</f>
         <v>249</v>
       </c>
-      <c r="L10" s="127" t="n">
+      <c r="L10" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I18=0,"",'Deelnemers en Scores'!I18)</f>
         <v>249</v>
       </c>
-      <c r="M10" s="127" t="str">
+      <c r="M10" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I19=0,"",'Deelnemers en Scores'!I19)</f>
         <v/>
       </c>
-      <c r="N10" s="116"/>
-      <c r="O10" s="128" t="n">
+      <c r="N10" s="117"/>
+      <c r="O10" s="129" t="n">
         <f aca="false">IF(ISNUMBER(J10),E10+J10,"")</f>
         <v>513</v>
       </c>
-      <c r="P10" s="129" t="n">
+      <c r="P10" s="130" t="n">
         <f aca="false">IF(ISNUMBER(K10),F10+K10,"")</f>
         <v>496</v>
       </c>
-      <c r="Q10" s="129" t="n">
+      <c r="Q10" s="130" t="n">
         <f aca="false">IF(ISNUMBER(L10),G10+L10,"")</f>
         <v>495</v>
       </c>
-      <c r="R10" s="130" t="str">
+      <c r="R10" s="131" t="str">
         <f aca="false">IF(ISNUMBER(M10),H10+M10,"")</f>
         <v/>
       </c>
-      <c r="S10" s="120" t="n">
+      <c r="S10" s="121" t="n">
         <f aca="false">IF(COUNT(O10:R10)&lt;4,SUM(O10:R10),SUM(O10:R10)-MIN(O10:R10))</f>
         <v>1504</v>
       </c>
       <c r="T10" s="1"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="122" t="n">
+      <c r="U10" s="132"/>
+      <c r="V10" s="123" t="n">
         <f aca="false">S10+(U10/1000)</f>
         <v>1504</v>
       </c>
-      <c r="X10" s="123"/>
+      <c r="X10" s="124"/>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="89"/>
-      <c r="B11" s="124" t="n">
+      <c r="A11" s="90"/>
+      <c r="B11" s="125" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B21&gt;0,'Deelnemers en Scores'!B21,"")</f>
         <v>3</v>
       </c>
-      <c r="C11" s="125" t="str">
+      <c r="C11" s="126" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F21="","",'Deelnemers en Scores'!F21)</f>
         <v>team-4091-1-C</v>
       </c>
-      <c r="D11" s="126" t="str">
+      <c r="D11" s="127" t="str">
         <f aca="false">'Deelnemers en Scores'!D21</f>
         <v>[4091] Club 4091</v>
       </c>
-      <c r="E11" s="127" t="n">
+      <c r="E11" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H22=0,"",'Deelnemers en Scores'!H22)</f>
         <v>255</v>
       </c>
-      <c r="F11" s="127" t="n">
+      <c r="F11" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H23=0,"",'Deelnemers en Scores'!H23)</f>
         <v>249</v>
       </c>
-      <c r="G11" s="127" t="str">
+      <c r="G11" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H24=0,"",'Deelnemers en Scores'!H24)</f>
         <v/>
       </c>
-      <c r="H11" s="127" t="n">
+      <c r="H11" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H25=0,"",'Deelnemers en Scores'!H25)</f>
         <v>200</v>
       </c>
-      <c r="I11" s="116"/>
-      <c r="J11" s="127" t="n">
+      <c r="I11" s="117"/>
+      <c r="J11" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I22=0,"",'Deelnemers en Scores'!I22)</f>
         <v>240</v>
       </c>
-      <c r="K11" s="127" t="n">
+      <c r="K11" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I23=0,"",'Deelnemers en Scores'!I23)</f>
         <v>238</v>
       </c>
-      <c r="L11" s="127" t="str">
+      <c r="L11" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I24=0,"",'Deelnemers en Scores'!I24)</f>
         <v/>
       </c>
-      <c r="M11" s="127" t="n">
+      <c r="M11" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I25=0,"",'Deelnemers en Scores'!I25)</f>
         <v>200</v>
       </c>
-      <c r="N11" s="116"/>
-      <c r="O11" s="128" t="n">
+      <c r="N11" s="117"/>
+      <c r="O11" s="129" t="n">
         <f aca="false">IF(ISNUMBER(J11),E11+J11,"")</f>
         <v>495</v>
       </c>
-      <c r="P11" s="129" t="n">
+      <c r="P11" s="130" t="n">
         <f aca="false">IF(ISNUMBER(K11),F11+K11,"")</f>
         <v>487</v>
       </c>
-      <c r="Q11" s="129" t="str">
+      <c r="Q11" s="130" t="str">
         <f aca="false">IF(ISNUMBER(L11),G11+L11,"")</f>
         <v/>
       </c>
-      <c r="R11" s="130" t="n">
+      <c r="R11" s="131" t="n">
         <f aca="false">IF(ISNUMBER(M11),H11+M11,"")</f>
         <v>400</v>
       </c>
-      <c r="S11" s="120" t="n">
+      <c r="S11" s="121" t="n">
         <f aca="false">IF(COUNT(O11:R11)&lt;4,SUM(O11:R11),SUM(O11:R11)-MIN(O11:R11))</f>
         <v>1382</v>
       </c>
       <c r="T11" s="1"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="122" t="n">
+      <c r="U11" s="132"/>
+      <c r="V11" s="123" t="n">
         <f aca="false">S11+(U11/1000)</f>
         <v>1382</v>
       </c>
-      <c r="X11" s="123"/>
+      <c r="X11" s="124"/>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="89"/>
-      <c r="B12" s="124" t="n">
+      <c r="A12" s="90"/>
+      <c r="B12" s="125" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B27&gt;0,'Deelnemers en Scores'!B27,"")</f>
         <v>4</v>
       </c>
-      <c r="C12" s="125" t="str">
+      <c r="C12" s="126" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F27="","",'Deelnemers en Scores'!F27)</f>
         <v>team-4092-3-C</v>
       </c>
-      <c r="D12" s="126" t="str">
+      <c r="D12" s="127" t="str">
         <f aca="false">'Deelnemers en Scores'!D27</f>
         <v>[4092] Club 4092</v>
       </c>
-      <c r="E12" s="127" t="n">
+      <c r="E12" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H28=0,"",'Deelnemers en Scores'!H28)</f>
         <v>242</v>
       </c>
-      <c r="F12" s="127" t="n">
+      <c r="F12" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H29=0,"",'Deelnemers en Scores'!H29)</f>
         <v>220</v>
       </c>
-      <c r="G12" s="127" t="n">
+      <c r="G12" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H30=0,"",'Deelnemers en Scores'!H30)</f>
         <v>221</v>
       </c>
-      <c r="H12" s="127" t="n">
+      <c r="H12" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!H31=0,"",'Deelnemers en Scores'!H31)</f>
         <v>10</v>
       </c>
-      <c r="I12" s="116"/>
-      <c r="J12" s="127" t="n">
+      <c r="I12" s="117"/>
+      <c r="J12" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I28=0,"",'Deelnemers en Scores'!I28)</f>
         <v>234</v>
       </c>
-      <c r="K12" s="127" t="n">
+      <c r="K12" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I29=0,"",'Deelnemers en Scores'!I29)</f>
         <v>221</v>
       </c>
-      <c r="L12" s="127" t="n">
+      <c r="L12" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I30=0,"",'Deelnemers en Scores'!I30)</f>
         <v>253</v>
       </c>
-      <c r="M12" s="127" t="n">
+      <c r="M12" s="128" t="n">
         <f aca="false">IF('Deelnemers en Scores'!I31=0,"",'Deelnemers en Scores'!I31)</f>
         <v>10</v>
       </c>
-      <c r="N12" s="116"/>
-      <c r="O12" s="128" t="n">
+      <c r="N12" s="117"/>
+      <c r="O12" s="129" t="n">
         <f aca="false">IF(ISNUMBER(J12),E12+J12,"")</f>
         <v>476</v>
       </c>
-      <c r="P12" s="129" t="n">
+      <c r="P12" s="130" t="n">
         <f aca="false">IF(ISNUMBER(K12),F12+K12,"")</f>
         <v>441</v>
       </c>
-      <c r="Q12" s="129" t="n">
+      <c r="Q12" s="130" t="n">
         <f aca="false">IF(ISNUMBER(L12),G12+L12,"")</f>
         <v>474</v>
       </c>
-      <c r="R12" s="130" t="n">
+      <c r="R12" s="131" t="n">
         <f aca="false">IF(ISNUMBER(M12),H12+M12,"")</f>
         <v>20</v>
       </c>
-      <c r="S12" s="120" t="n">
+      <c r="S12" s="121" t="n">
         <f aca="false">IF(COUNT(O12:R12)&lt;4,SUM(O12:R12),SUM(O12:R12)-MIN(O12:R12))</f>
         <v>1391</v>
       </c>
       <c r="T12" s="1"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="122" t="n">
+      <c r="U12" s="132"/>
+      <c r="V12" s="123" t="n">
         <f aca="false">S12+(U12/1000)</f>
         <v>1391</v>
       </c>
-      <c r="X12" s="123"/>
+      <c r="X12" s="124"/>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="89"/>
-      <c r="B13" s="124" t="n">
+      <c r="A13" s="90"/>
+      <c r="B13" s="125" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B33&gt;0,'Deelnemers en Scores'!B33,"")</f>
         <v>5</v>
       </c>
-      <c r="C13" s="125" t="str">
+      <c r="C13" s="126" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F33="","",'Deelnemers en Scores'!F33)</f>
         <v>team-4101-bestaat-niet</v>
       </c>
-      <c r="D13" s="126" t="str">
+      <c r="D13" s="127" t="str">
         <f aca="false">'Deelnemers en Scores'!D33</f>
         <v>[4101] Club 4101</v>
       </c>
-      <c r="E13" s="127" t="str">
+      <c r="E13" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H34=0,"",'Deelnemers en Scores'!H34)</f>
         <v/>
       </c>
-      <c r="F13" s="127" t="str">
+      <c r="F13" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H35=0,"",'Deelnemers en Scores'!H35)</f>
         <v/>
       </c>
-      <c r="G13" s="127" t="str">
+      <c r="G13" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H36=0,"",'Deelnemers en Scores'!H36)</f>
         <v/>
       </c>
-      <c r="H13" s="127" t="str">
+      <c r="H13" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H37=0,"",'Deelnemers en Scores'!H37)</f>
         <v/>
       </c>
-      <c r="I13" s="116"/>
-      <c r="J13" s="127" t="str">
+      <c r="I13" s="117"/>
+      <c r="J13" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I34=0,"",'Deelnemers en Scores'!I34)</f>
         <v/>
       </c>
-      <c r="K13" s="127" t="str">
+      <c r="K13" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I35=0,"",'Deelnemers en Scores'!I35)</f>
         <v/>
       </c>
-      <c r="L13" s="127" t="str">
+      <c r="L13" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I36=0,"",'Deelnemers en Scores'!I36)</f>
         <v/>
       </c>
-      <c r="M13" s="127" t="str">
+      <c r="M13" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I37=0,"",'Deelnemers en Scores'!I37)</f>
         <v/>
       </c>
-      <c r="N13" s="116"/>
-      <c r="O13" s="128" t="str">
+      <c r="N13" s="117"/>
+      <c r="O13" s="129" t="str">
         <f aca="false">IF(ISNUMBER(J13),E13+J13,"")</f>
         <v/>
       </c>
-      <c r="P13" s="129" t="str">
+      <c r="P13" s="130" t="str">
         <f aca="false">IF(ISNUMBER(K13),F13+K13,"")</f>
         <v/>
       </c>
-      <c r="Q13" s="129" t="str">
+      <c r="Q13" s="130" t="str">
         <f aca="false">IF(ISNUMBER(L13),G13+L13,"")</f>
         <v/>
       </c>
-      <c r="R13" s="130" t="str">
+      <c r="R13" s="131" t="str">
         <f aca="false">IF(ISNUMBER(M13),H13+M13,"")</f>
         <v/>
       </c>
-      <c r="S13" s="120" t="n">
+      <c r="S13" s="121" t="n">
         <f aca="false">IF(COUNT(O13:R13)&lt;4,SUM(O13:R13),SUM(O13:R13)-MIN(O13:R13))</f>
         <v>0</v>
       </c>
       <c r="T13" s="1"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="122" t="n">
+      <c r="U13" s="132"/>
+      <c r="V13" s="123" t="n">
         <f aca="false">S13+(U13/1000)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="123"/>
+      <c r="X13" s="124"/>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="89"/>
-      <c r="B14" s="124" t="n">
+      <c r="A14" s="90"/>
+      <c r="B14" s="125" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B39&gt;0,'Deelnemers en Scores'!B39,"")</f>
         <v>6</v>
       </c>
-      <c r="C14" s="125" t="str">
+      <c r="C14" s="126" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F39="","",'Deelnemers en Scores'!F39)</f>
         <v>team-1234-bestaat-niet</v>
       </c>
-      <c r="D14" s="126" t="str">
+      <c r="D14" s="127" t="str">
         <f aca="false">'Deelnemers en Scores'!D39</f>
         <v>[1234] Fout club</v>
       </c>
-      <c r="E14" s="127" t="str">
+      <c r="E14" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H40=0,"",'Deelnemers en Scores'!H40)</f>
         <v/>
       </c>
-      <c r="F14" s="127" t="str">
+      <c r="F14" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H41=0,"",'Deelnemers en Scores'!H41)</f>
         <v/>
       </c>
-      <c r="G14" s="127" t="str">
+      <c r="G14" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H42=0,"",'Deelnemers en Scores'!H42)</f>
         <v/>
       </c>
-      <c r="H14" s="127" t="str">
+      <c r="H14" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H43=0,"",'Deelnemers en Scores'!H43)</f>
         <v/>
       </c>
-      <c r="I14" s="116"/>
-      <c r="J14" s="127" t="str">
+      <c r="I14" s="117"/>
+      <c r="J14" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I40=0,"",'Deelnemers en Scores'!I40)</f>
         <v/>
       </c>
-      <c r="K14" s="127" t="str">
+      <c r="K14" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I41=0,"",'Deelnemers en Scores'!I41)</f>
         <v/>
       </c>
-      <c r="L14" s="127" t="str">
+      <c r="L14" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I42=0,"",'Deelnemers en Scores'!I42)</f>
         <v/>
       </c>
-      <c r="M14" s="127" t="str">
+      <c r="M14" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I43=0,"",'Deelnemers en Scores'!I43)</f>
         <v/>
       </c>
-      <c r="N14" s="116"/>
-      <c r="O14" s="128" t="str">
+      <c r="N14" s="117"/>
+      <c r="O14" s="129" t="str">
         <f aca="false">IF(ISNUMBER(J14),E14+J14,"")</f>
         <v/>
       </c>
-      <c r="P14" s="129" t="str">
+      <c r="P14" s="130" t="str">
         <f aca="false">IF(ISNUMBER(K14),F14+K14,"")</f>
         <v/>
       </c>
-      <c r="Q14" s="129" t="str">
+      <c r="Q14" s="130" t="str">
         <f aca="false">IF(ISNUMBER(L14),G14+L14,"")</f>
         <v/>
       </c>
-      <c r="R14" s="130" t="str">
+      <c r="R14" s="131" t="str">
         <f aca="false">IF(ISNUMBER(M14),H14+M14,"")</f>
         <v/>
       </c>
-      <c r="S14" s="120" t="n">
+      <c r="S14" s="121" t="n">
         <f aca="false">IF(COUNT(O14:R14)&lt;4,SUM(O14:R14),SUM(O14:R14)-MIN(O14:R14))</f>
         <v>0</v>
       </c>
       <c r="T14" s="1"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="122" t="n">
+      <c r="U14" s="132"/>
+      <c r="V14" s="123" t="n">
         <f aca="false">S14+(U14/1000)</f>
         <v>0</v>
       </c>
-      <c r="X14" s="123"/>
+      <c r="X14" s="124"/>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="89"/>
-      <c r="B15" s="124" t="n">
+      <c r="A15" s="90"/>
+      <c r="B15" s="125" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B45&gt;0,'Deelnemers en Scores'!B45,"")</f>
         <v>7</v>
       </c>
-      <c r="C15" s="125" t="str">
+      <c r="C15" s="126" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F45="","",'Deelnemers en Scores'!F45)</f>
         <v>n.v.t.</v>
       </c>
-      <c r="D15" s="126" t="str">
+      <c r="D15" s="127" t="str">
         <f aca="false">'Deelnemers en Scores'!D45</f>
         <v>n.v.t.</v>
       </c>
-      <c r="E15" s="127" t="str">
+      <c r="E15" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H46=0,"",'Deelnemers en Scores'!H46)</f>
         <v/>
       </c>
-      <c r="F15" s="127" t="str">
+      <c r="F15" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H47=0,"",'Deelnemers en Scores'!H47)</f>
         <v/>
       </c>
-      <c r="G15" s="127" t="str">
+      <c r="G15" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H48=0,"",'Deelnemers en Scores'!H48)</f>
         <v/>
       </c>
-      <c r="H15" s="127" t="str">
+      <c r="H15" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H49=0,"",'Deelnemers en Scores'!H49)</f>
         <v/>
       </c>
-      <c r="I15" s="116"/>
-      <c r="J15" s="127" t="str">
+      <c r="I15" s="117"/>
+      <c r="J15" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I46=0,"",'Deelnemers en Scores'!I46)</f>
         <v/>
       </c>
-      <c r="K15" s="127" t="str">
+      <c r="K15" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I47=0,"",'Deelnemers en Scores'!I47)</f>
         <v/>
       </c>
-      <c r="L15" s="127" t="str">
+      <c r="L15" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I48=0,"",'Deelnemers en Scores'!I48)</f>
         <v/>
       </c>
-      <c r="M15" s="127" t="str">
+      <c r="M15" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I49=0,"",'Deelnemers en Scores'!I49)</f>
         <v/>
       </c>
-      <c r="N15" s="116"/>
-      <c r="O15" s="128" t="str">
+      <c r="N15" s="117"/>
+      <c r="O15" s="129" t="str">
         <f aca="false">IF(ISNUMBER(J15),E15+J15,"")</f>
         <v/>
       </c>
-      <c r="P15" s="129" t="str">
+      <c r="P15" s="130" t="str">
         <f aca="false">IF(ISNUMBER(K15),F15+K15,"")</f>
         <v/>
       </c>
-      <c r="Q15" s="129" t="str">
+      <c r="Q15" s="130" t="str">
         <f aca="false">IF(ISNUMBER(L15),G15+L15,"")</f>
         <v/>
       </c>
-      <c r="R15" s="130" t="str">
+      <c r="R15" s="131" t="str">
         <f aca="false">IF(ISNUMBER(M15),H15+M15,"")</f>
         <v/>
       </c>
-      <c r="S15" s="120" t="n">
+      <c r="S15" s="121" t="n">
         <f aca="false">IF(COUNT(O15:R15)&lt;4,SUM(O15:R15),SUM(O15:R15)-MIN(O15:R15))</f>
         <v>0</v>
       </c>
       <c r="T15" s="1"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="122" t="n">
+      <c r="U15" s="132"/>
+      <c r="V15" s="123" t="n">
         <f aca="false">S15+(U15/1000)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="123"/>
+      <c r="X15" s="124"/>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="89"/>
-      <c r="B16" s="124" t="n">
+      <c r="A16" s="90"/>
+      <c r="B16" s="125" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B51&gt;0,'Deelnemers en Scores'!B51,"")</f>
         <v>8</v>
       </c>
-      <c r="C16" s="125" t="str">
+      <c r="C16" s="126" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F51="","",'Deelnemers en Scores'!F51)</f>
         <v>n.v.t.</v>
       </c>
-      <c r="D16" s="126" t="str">
+      <c r="D16" s="127" t="str">
         <f aca="false">'Deelnemers en Scores'!D51</f>
         <v>n.v.t.</v>
       </c>
-      <c r="E16" s="127" t="str">
+      <c r="E16" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H52=0,"",'Deelnemers en Scores'!H52)</f>
         <v/>
       </c>
-      <c r="F16" s="127" t="str">
+      <c r="F16" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H53=0,"",'Deelnemers en Scores'!H53)</f>
         <v/>
       </c>
-      <c r="G16" s="127" t="str">
+      <c r="G16" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H54=0,"",'Deelnemers en Scores'!H54)</f>
         <v/>
       </c>
-      <c r="H16" s="127" t="str">
+      <c r="H16" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H55=0,"",'Deelnemers en Scores'!H55)</f>
         <v/>
       </c>
-      <c r="I16" s="116"/>
-      <c r="J16" s="127" t="str">
+      <c r="I16" s="117"/>
+      <c r="J16" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I52=0,"",'Deelnemers en Scores'!I52)</f>
         <v/>
       </c>
-      <c r="K16" s="127" t="str">
+      <c r="K16" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I53=0,"",'Deelnemers en Scores'!I53)</f>
         <v/>
       </c>
-      <c r="L16" s="127" t="str">
+      <c r="L16" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I54=0,"",'Deelnemers en Scores'!I54)</f>
         <v/>
       </c>
-      <c r="M16" s="127" t="str">
+      <c r="M16" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I55=0,"",'Deelnemers en Scores'!I55)</f>
         <v/>
       </c>
-      <c r="N16" s="116"/>
-      <c r="O16" s="128" t="str">
+      <c r="N16" s="117"/>
+      <c r="O16" s="129" t="str">
         <f aca="false">IF(ISNUMBER(J16),E16+J16,"")</f>
         <v/>
       </c>
-      <c r="P16" s="129" t="str">
+      <c r="P16" s="130" t="str">
         <f aca="false">IF(ISNUMBER(K16),F16+K16,"")</f>
         <v/>
       </c>
-      <c r="Q16" s="129" t="str">
+      <c r="Q16" s="130" t="str">
         <f aca="false">IF(ISNUMBER(L16),G16+L16,"")</f>
         <v/>
       </c>
-      <c r="R16" s="130" t="str">
+      <c r="R16" s="131" t="str">
         <f aca="false">IF(ISNUMBER(M16),H16+M16,"")</f>
         <v/>
       </c>
-      <c r="S16" s="120" t="n">
+      <c r="S16" s="121" t="n">
         <f aca="false">IF(COUNT(O16:R16)&lt;4,SUM(O16:R16),SUM(O16:R16)-MIN(O16:R16))</f>
         <v>0</v>
       </c>
       <c r="T16" s="1"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="122" t="n">
+      <c r="U16" s="132"/>
+      <c r="V16" s="123" t="n">
         <f aca="false">S16+(U16/1000)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="123"/>
+      <c r="X16" s="124"/>
     </row>
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="89"/>
-      <c r="B17" s="124" t="n">
+      <c r="A17" s="90"/>
+      <c r="B17" s="125" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B57&gt;0,'Deelnemers en Scores'!B57,"")</f>
         <v>9</v>
       </c>
-      <c r="C17" s="125" t="str">
+      <c r="C17" s="126" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F57="","",'Deelnemers en Scores'!F57)</f>
         <v>n.v.t.</v>
       </c>
-      <c r="D17" s="126" t="str">
+      <c r="D17" s="127" t="str">
         <f aca="false">'Deelnemers en Scores'!D57</f>
         <v>n.v.t.</v>
       </c>
-      <c r="E17" s="127" t="str">
+      <c r="E17" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H58=0,"",'Deelnemers en Scores'!H58)</f>
         <v/>
       </c>
-      <c r="F17" s="127" t="str">
+      <c r="F17" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H59=0,"",'Deelnemers en Scores'!H59)</f>
         <v/>
       </c>
-      <c r="G17" s="127" t="str">
+      <c r="G17" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H60=0,"",'Deelnemers en Scores'!H60)</f>
         <v/>
       </c>
-      <c r="H17" s="127" t="str">
+      <c r="H17" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H61=0,"",'Deelnemers en Scores'!H61)</f>
         <v/>
       </c>
-      <c r="I17" s="116"/>
-      <c r="J17" s="127" t="str">
+      <c r="I17" s="117"/>
+      <c r="J17" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I58=0,"",'Deelnemers en Scores'!I58)</f>
         <v/>
       </c>
-      <c r="K17" s="127" t="str">
+      <c r="K17" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I59=0,"",'Deelnemers en Scores'!I59)</f>
         <v/>
       </c>
-      <c r="L17" s="127" t="str">
+      <c r="L17" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I60=0,"",'Deelnemers en Scores'!I60)</f>
         <v/>
       </c>
-      <c r="M17" s="127" t="str">
+      <c r="M17" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I61=0,"",'Deelnemers en Scores'!I61)</f>
         <v/>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="128" t="str">
+      <c r="N17" s="117"/>
+      <c r="O17" s="129" t="str">
         <f aca="false">IF(ISNUMBER(J17),E17+J17,"")</f>
         <v/>
       </c>
-      <c r="P17" s="129" t="str">
+      <c r="P17" s="130" t="str">
         <f aca="false">IF(ISNUMBER(K17),F17+K17,"")</f>
         <v/>
       </c>
-      <c r="Q17" s="129" t="str">
+      <c r="Q17" s="130" t="str">
         <f aca="false">IF(ISNUMBER(L17),G17+L17,"")</f>
         <v/>
       </c>
-      <c r="R17" s="130" t="str">
+      <c r="R17" s="131" t="str">
         <f aca="false">IF(ISNUMBER(M17),H17+M17,"")</f>
         <v/>
       </c>
-      <c r="S17" s="120" t="n">
+      <c r="S17" s="121" t="n">
         <f aca="false">IF(COUNT(O17:R17)&lt;4,SUM(O17:R17),SUM(O17:R17)-MIN(O17:R17))</f>
         <v>0</v>
       </c>
       <c r="T17" s="1"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="122" t="n">
+      <c r="U17" s="132"/>
+      <c r="V17" s="123" t="n">
         <f aca="false">S17+(U17/1000)</f>
         <v>0</v>
       </c>
-      <c r="X17" s="123"/>
+      <c r="X17" s="124"/>
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="89"/>
-      <c r="B18" s="124" t="n">
+      <c r="A18" s="90"/>
+      <c r="B18" s="125" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B63&gt;0,'Deelnemers en Scores'!B63,"")</f>
         <v>10</v>
       </c>
-      <c r="C18" s="125" t="str">
+      <c r="C18" s="126" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F63="","",'Deelnemers en Scores'!F63)</f>
         <v>n.v.t.</v>
       </c>
-      <c r="D18" s="126" t="str">
+      <c r="D18" s="127" t="str">
         <f aca="false">'Deelnemers en Scores'!D63</f>
         <v>n.v.t.</v>
       </c>
-      <c r="E18" s="127" t="str">
+      <c r="E18" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H64=0,"",'Deelnemers en Scores'!H64)</f>
         <v/>
       </c>
-      <c r="F18" s="127" t="str">
+      <c r="F18" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H65=0,"",'Deelnemers en Scores'!H65)</f>
         <v/>
       </c>
-      <c r="G18" s="127" t="str">
+      <c r="G18" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H66=0,"",'Deelnemers en Scores'!H66)</f>
         <v/>
       </c>
-      <c r="H18" s="127" t="str">
+      <c r="H18" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H67=0,"",'Deelnemers en Scores'!H67)</f>
         <v/>
       </c>
-      <c r="I18" s="116"/>
-      <c r="J18" s="127" t="str">
+      <c r="I18" s="117"/>
+      <c r="J18" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I64=0,"",'Deelnemers en Scores'!I64)</f>
         <v/>
       </c>
-      <c r="K18" s="127" t="str">
+      <c r="K18" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I65=0,"",'Deelnemers en Scores'!I65)</f>
         <v/>
       </c>
-      <c r="L18" s="127" t="str">
+      <c r="L18" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I66=0,"",'Deelnemers en Scores'!I66)</f>
         <v/>
       </c>
-      <c r="M18" s="127" t="str">
+      <c r="M18" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I67=0,"",'Deelnemers en Scores'!I67)</f>
         <v/>
       </c>
-      <c r="N18" s="116"/>
-      <c r="O18" s="128" t="str">
+      <c r="N18" s="117"/>
+      <c r="O18" s="129" t="str">
         <f aca="false">IF(ISNUMBER(J18),E18+J18,"")</f>
         <v/>
       </c>
-      <c r="P18" s="129" t="str">
+      <c r="P18" s="130" t="str">
         <f aca="false">IF(ISNUMBER(K18),F18+K18,"")</f>
         <v/>
       </c>
-      <c r="Q18" s="129" t="str">
+      <c r="Q18" s="130" t="str">
         <f aca="false">IF(ISNUMBER(L18),G18+L18,"")</f>
         <v/>
       </c>
-      <c r="R18" s="130" t="str">
+      <c r="R18" s="131" t="str">
         <f aca="false">IF(ISNUMBER(M18),H18+M18,"")</f>
         <v/>
       </c>
-      <c r="S18" s="120" t="n">
+      <c r="S18" s="121" t="n">
         <f aca="false">IF(COUNT(O18:R18)&lt;4,SUM(O18:R18),SUM(O18:R18)-MIN(O18:R18))</f>
         <v>0</v>
       </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="122" t="n">
+      <c r="U18" s="132"/>
+      <c r="V18" s="123" t="n">
         <f aca="false">S18+(U18/1000)</f>
         <v>0</v>
       </c>
-      <c r="X18" s="123"/>
+      <c r="X18" s="124"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="89"/>
-      <c r="B19" s="124" t="n">
+      <c r="A19" s="90"/>
+      <c r="B19" s="125" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B69&gt;0,'Deelnemers en Scores'!B69,"")</f>
         <v>11</v>
       </c>
-      <c r="C19" s="125" t="str">
+      <c r="C19" s="126" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F69="","",'Deelnemers en Scores'!F69)</f>
         <v>n.v.t.</v>
       </c>
-      <c r="D19" s="126" t="str">
+      <c r="D19" s="127" t="str">
         <f aca="false">'Deelnemers en Scores'!D69</f>
         <v>n.v.t.</v>
       </c>
-      <c r="E19" s="127" t="str">
+      <c r="E19" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H70=0,"",'Deelnemers en Scores'!H70)</f>
         <v/>
       </c>
-      <c r="F19" s="127" t="str">
+      <c r="F19" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H71=0,"",'Deelnemers en Scores'!H71)</f>
         <v/>
       </c>
-      <c r="G19" s="127" t="str">
+      <c r="G19" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H72=0,"",'Deelnemers en Scores'!H72)</f>
         <v/>
       </c>
-      <c r="H19" s="127" t="str">
+      <c r="H19" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H73=0,"",'Deelnemers en Scores'!H73)</f>
         <v/>
       </c>
-      <c r="I19" s="116"/>
-      <c r="J19" s="127" t="str">
+      <c r="I19" s="117"/>
+      <c r="J19" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I70=0,"",'Deelnemers en Scores'!I70)</f>
         <v/>
       </c>
-      <c r="K19" s="127" t="str">
+      <c r="K19" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I71=0,"",'Deelnemers en Scores'!I71)</f>
         <v/>
       </c>
-      <c r="L19" s="127" t="str">
+      <c r="L19" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I72=0,"",'Deelnemers en Scores'!I72)</f>
         <v/>
       </c>
-      <c r="M19" s="127" t="str">
+      <c r="M19" s="128" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I73=0,"",'Deelnemers en Scores'!I73)</f>
         <v/>
       </c>
-      <c r="N19" s="116"/>
-      <c r="O19" s="128" t="str">
+      <c r="N19" s="117"/>
+      <c r="O19" s="129" t="str">
         <f aca="false">IF(ISNUMBER(J19),E19+J19,"")</f>
         <v/>
       </c>
-      <c r="P19" s="129" t="str">
+      <c r="P19" s="130" t="str">
         <f aca="false">IF(ISNUMBER(K19),F19+K19,"")</f>
         <v/>
       </c>
-      <c r="Q19" s="129" t="str">
+      <c r="Q19" s="130" t="str">
         <f aca="false">IF(ISNUMBER(L19),G19+L19,"")</f>
         <v/>
       </c>
-      <c r="R19" s="130" t="str">
+      <c r="R19" s="131" t="str">
         <f aca="false">IF(ISNUMBER(M19),H19+M19,"")</f>
         <v/>
       </c>
-      <c r="S19" s="120" t="n">
+      <c r="S19" s="121" t="n">
         <f aca="false">IF(COUNT(O19:R19)&lt;4,SUM(O19:R19),SUM(O19:R19)-MIN(O19:R19))</f>
         <v>0</v>
       </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="122" t="n">
+      <c r="U19" s="132"/>
+      <c r="V19" s="123" t="n">
         <f aca="false">S19+(U19/1000)</f>
         <v>0</v>
       </c>
-      <c r="X19" s="123"/>
+      <c r="X19" s="124"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="89"/>
-      <c r="B20" s="132" t="n">
+      <c r="A20" s="90"/>
+      <c r="B20" s="133" t="n">
         <f aca="false">IF('Deelnemers en Scores'!B75&gt;0,'Deelnemers en Scores'!B75,"")</f>
         <v>12</v>
       </c>
-      <c r="C20" s="133" t="str">
+      <c r="C20" s="134" t="str">
         <f aca="false">IF('Deelnemers en Scores'!F75="","",'Deelnemers en Scores'!F75)</f>
         <v>n.v.t.</v>
       </c>
-      <c r="D20" s="134" t="str">
+      <c r="D20" s="135" t="str">
         <f aca="false">'Deelnemers en Scores'!D75</f>
         <v>n.v.t.</v>
       </c>
-      <c r="E20" s="135" t="str">
+      <c r="E20" s="136" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H76=0,"",'Deelnemers en Scores'!H76)</f>
         <v/>
       </c>
-      <c r="F20" s="135" t="str">
+      <c r="F20" s="136" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H77=0,"",'Deelnemers en Scores'!H77)</f>
         <v/>
       </c>
-      <c r="G20" s="135" t="str">
+      <c r="G20" s="136" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H78=0,"",'Deelnemers en Scores'!H78)</f>
         <v/>
       </c>
-      <c r="H20" s="135" t="str">
+      <c r="H20" s="136" t="str">
         <f aca="false">IF('Deelnemers en Scores'!H79=0,"",'Deelnemers en Scores'!H79)</f>
         <v/>
       </c>
-      <c r="I20" s="116"/>
-      <c r="J20" s="135" t="str">
+      <c r="I20" s="117"/>
+      <c r="J20" s="136" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I76=0,"",'Deelnemers en Scores'!I76)</f>
         <v/>
       </c>
-      <c r="K20" s="135" t="str">
+      <c r="K20" s="136" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I77=0,"",'Deelnemers en Scores'!I77)</f>
         <v/>
       </c>
-      <c r="L20" s="135" t="str">
+      <c r="L20" s="136" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I78=0,"",'Deelnemers en Scores'!I78)</f>
         <v/>
       </c>
-      <c r="M20" s="135" t="str">
+      <c r="M20" s="136" t="str">
         <f aca="false">IF('Deelnemers en Scores'!I79=0,"",'Deelnemers en Scores'!I79)</f>
         <v/>
       </c>
-      <c r="N20" s="116"/>
-      <c r="O20" s="136" t="str">
+      <c r="N20" s="117"/>
+      <c r="O20" s="137" t="str">
         <f aca="false">IF(ISNUMBER(J20),E20+J20,"")</f>
         <v/>
       </c>
-      <c r="P20" s="137" t="str">
+      <c r="P20" s="138" t="str">
         <f aca="false">IF(ISNUMBER(K20),F20+K20,"")</f>
         <v/>
       </c>
-      <c r="Q20" s="137" t="str">
+      <c r="Q20" s="138" t="str">
         <f aca="false">IF(ISNUMBER(L20),G20+L20,"")</f>
         <v/>
       </c>
-      <c r="R20" s="138" t="str">
+      <c r="R20" s="139" t="str">
         <f aca="false">IF(ISNUMBER(M20),H20+M20,"")</f>
         <v/>
       </c>
-      <c r="S20" s="139" t="n">
+      <c r="S20" s="140" t="n">
         <f aca="false">IF(COUNT(O20:R20)&lt;4,SUM(O20:R20),SUM(O20:R20)-MIN(O20:R20))</f>
         <v>0</v>
       </c>
-      <c r="T20" s="140"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="142" t="n">
+      <c r="T20" s="141"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="143" t="n">
         <f aca="false">S20+(U20/1000)</f>
         <v>0</v>
       </c>
-      <c r="X20" s="123"/>
+      <c r="X20" s="124"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="143"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="144"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
     </row>
   </sheetData>
   <autoFilter ref="B8:V20">
@@ -5483,1334 +5487,1334 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="77" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="77" width="41.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="77" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="77" width="44.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="77" width="1.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="77" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="77" width="2.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="77" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="77" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="77" width="44.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="77" width="1.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="77" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="77" width="1.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="77" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="77" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="77" width="47.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="77" width="1.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="77" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="77" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="77" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="77" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="77" width="21.66"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="77" width="7.89"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="28" style="77" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="77" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="77" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="77" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="36" min="34" style="77" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="37" min="37" style="77" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="38" min="38" style="77" width="11.22"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="39" min="39" style="77" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="41" min="40" style="77" width="11.22"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="43" min="42" style="77" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="44" min="44" style="77" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="45" min="45" style="77" width="2"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16384" min="46" style="88" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="78" width="2.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="78" width="41.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="78" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="78" width="44.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="78" width="1.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="78" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="78" width="2.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="78" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="78" width="2.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="78" width="44.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="78" width="1.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="78" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="78" width="1.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="78" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="78" width="2.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="78" width="47.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="78" width="1.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="78" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="78" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="78" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="78" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="78" width="21.66"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="78" width="7.89"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="28" style="78" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="31" min="31" style="78" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="32" style="78" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="33" min="33" style="78" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="36" min="34" style="78" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="37" min="37" style="78" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="38" min="38" style="78" width="11.22"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="39" min="39" style="78" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="41" min="40" style="78" width="11.22"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="43" min="42" style="78" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="44" min="44" style="78" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="45" min="45" style="78" width="2"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16384" min="46" style="89" width="9.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="145" t="str">
+      <c r="B4" s="146" t="str">
         <f aca="false">'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Compound klasse X</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="145"/>
-      <c r="X4" s="145"/>
-      <c r="Y4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="147"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="147"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="147"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
+      <c r="B6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="150"/>
-      <c r="L8" s="148" t="s">
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="151"/>
+      <c r="L8" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="150"/>
-      <c r="Z8" s="151"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="152" t="s">
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="151"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="AC8" s="151"/>
-      <c r="AD8" s="151"/>
-      <c r="AE8" s="151"/>
-      <c r="AF8" s="151"/>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="152" t="s">
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="AI8" s="151"/>
-      <c r="AJ8" s="151"/>
-      <c r="AK8" s="151"/>
-      <c r="AL8" s="151"/>
-      <c r="AM8" s="151"/>
-      <c r="AN8" s="152" t="s">
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="152"/>
+      <c r="AM8" s="152"/>
+      <c r="AN8" s="153" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="147"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="147"/>
-      <c r="AF9" s="147"/>
-      <c r="AG9" s="147"/>
-      <c r="AH9" s="147"/>
-      <c r="AI9" s="147"/>
-      <c r="AJ9" s="147"/>
-      <c r="AK9" s="147"/>
-      <c r="AL9" s="147"/>
-      <c r="AM9" s="147"/>
-      <c r="AN9" s="147"/>
-      <c r="AO9" s="147"/>
-      <c r="AP9" s="147"/>
-      <c r="AQ9" s="147"/>
-      <c r="AR9" s="147"/>
-      <c r="AS9" s="147"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="148"/>
+      <c r="AH9" s="148"/>
+      <c r="AI9" s="148"/>
+      <c r="AJ9" s="148"/>
+      <c r="AK9" s="148"/>
+      <c r="AL9" s="148"/>
+      <c r="AM9" s="148"/>
+      <c r="AN9" s="148"/>
+      <c r="AO9" s="148"/>
+      <c r="AP9" s="148"/>
+      <c r="AQ9" s="148"/>
+      <c r="AR9" s="148"/>
+      <c r="AS9" s="148"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="147"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="147"/>
-      <c r="AF10" s="147"/>
-      <c r="AG10" s="147"/>
-      <c r="AH10" s="147"/>
-      <c r="AI10" s="147"/>
-      <c r="AJ10" s="147"/>
-      <c r="AK10" s="147"/>
-      <c r="AL10" s="147"/>
-      <c r="AM10" s="147"/>
-      <c r="AN10" s="147"/>
-      <c r="AO10" s="147"/>
-      <c r="AP10" s="147"/>
-      <c r="AQ10" s="147"/>
-      <c r="AR10" s="147"/>
-      <c r="AS10" s="147"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="U10" s="148"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="148"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="148"/>
+      <c r="AG10" s="148"/>
+      <c r="AH10" s="148"/>
+      <c r="AI10" s="148"/>
+      <c r="AJ10" s="148"/>
+      <c r="AK10" s="148"/>
+      <c r="AL10" s="148"/>
+      <c r="AM10" s="148"/>
+      <c r="AN10" s="148"/>
+      <c r="AO10" s="148"/>
+      <c r="AP10" s="148"/>
+      <c r="AQ10" s="148"/>
+      <c r="AR10" s="148"/>
+      <c r="AS10" s="148"/>
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F11" s="154" t="s">
+      <c r="F11" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="154" t="s">
+      <c r="H11" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="154"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="152" t="s">
+      <c r="I11" s="155"/>
+      <c r="Z11" s="152"/>
+      <c r="AA11" s="152"/>
+      <c r="AB11" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="AC11" s="152" t="s">
+      <c r="AC11" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="AD11" s="153" t="s">
+      <c r="AD11" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="AE11" s="152" t="s">
+      <c r="AE11" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="AF11" s="152" t="s">
+      <c r="AF11" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="AG11" s="151"/>
-      <c r="AM11" s="151"/>
-      <c r="AN11" s="151"/>
-      <c r="AO11" s="151"/>
+      <c r="AG11" s="152"/>
+      <c r="AM11" s="152"/>
+      <c r="AN11" s="152"/>
+      <c r="AO11" s="152"/>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="155" t="n">
+      <c r="A12" s="156" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="156" t="str">
+      <c r="B12" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A12,20)&gt;0,INDEX(Uitslag!C$9:C$20,A12,1),"BYE")</f>
         <v>team-4091-2-C</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="156" t="str">
+      <c r="C12" s="158"/>
+      <c r="D12" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A12,20)&gt;0,INDEX(Uitslag!D$9:D$20,A12,1),"")</f>
         <v>[4091] Club 4091</v>
       </c>
-      <c r="E12" s="151"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="161" t="str">
+      <c r="E12" s="152"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="162" t="str">
         <f aca="false">IF(AND(ABS(H12-H14)&lt;1,H12&gt;H14),"*","")</f>
         <v/>
       </c>
-      <c r="J12" s="162"/>
-      <c r="K12" s="163"/>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="165"/>
-      <c r="AD12" s="165"/>
-      <c r="AE12" s="165" t="n">
+      <c r="J12" s="163"/>
+      <c r="K12" s="164"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="166"/>
+      <c r="AD12" s="166"/>
+      <c r="AE12" s="166" t="n">
         <f aca="false">F12+H12</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="166" t="b">
+      <c r="AF12" s="167" t="b">
         <f aca="false">AND(AD13=TRUE(),AE12&gt;AE14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="167"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="171" t="str">
+      <c r="A13" s="168"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="172" t="str">
         <f aca="false">IF(AC13=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I13" s="171"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="151"/>
-      <c r="AB13" s="166" t="b">
+      <c r="I13" s="172"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="152"/>
+      <c r="AB13" s="167" t="b">
         <f aca="false">AND(F12&lt;&gt;"",F14&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="166" t="b">
+      <c r="AC13" s="167" t="b">
         <f aca="false">AND(AB13=TRUE(),F12=F14)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="166" t="b">
+      <c r="AD13" s="167" t="b">
         <f aca="false">IF(AB13=FALSE(),FALSE(),OR(AC13=FALSE(),AND(H12&lt;&gt;"",H14&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="170"/>
-      <c r="AF13" s="170"/>
-      <c r="AH13" s="152" t="s">
+      <c r="AE13" s="171"/>
+      <c r="AF13" s="171"/>
+      <c r="AH13" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="AI13" s="152" t="s">
+      <c r="AI13" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="AJ13" s="153" t="s">
+      <c r="AJ13" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="AK13" s="152" t="s">
+      <c r="AK13" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="AL13" s="152" t="s">
+      <c r="AL13" s="153" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="155" t="n">
+      <c r="A14" s="156" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="156" t="str">
+      <c r="B14" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A14,20)&gt;0,INDEX(Uitslag!C$9:C$20,A14,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="156" t="str">
+      <c r="C14" s="158"/>
+      <c r="D14" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A14,20)&gt;0,INDEX(Uitslag!D$9:D$20,A14,1),"")</f>
         <v/>
       </c>
-      <c r="E14" s="151"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="172" t="str">
+      <c r="E14" s="152"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="173" t="str">
         <f aca="false">IF(AND(ABS(H12-H14)&lt;1,H14&gt;H12),"*","")</f>
         <v/>
       </c>
-      <c r="J14" s="162"/>
-      <c r="N14" s="154" t="s">
+      <c r="J14" s="163"/>
+      <c r="N14" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="O14" s="151"/>
-      <c r="P14" s="154" t="s">
+      <c r="O14" s="152"/>
+      <c r="P14" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="S14" s="173"/>
-      <c r="AB14" s="164"/>
-      <c r="AC14" s="165"/>
-      <c r="AD14" s="165"/>
-      <c r="AE14" s="165" t="n">
+      <c r="S14" s="174"/>
+      <c r="AB14" s="165"/>
+      <c r="AC14" s="166"/>
+      <c r="AD14" s="166"/>
+      <c r="AE14" s="166" t="n">
         <f aca="false">F14+H14</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="166" t="b">
+      <c r="AF14" s="167" t="b">
         <f aca="false">AND(AD13=TRUE(),AE14&gt;AE12)</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="154"/>
-      <c r="AH14" s="164"/>
-      <c r="AI14" s="165"/>
-      <c r="AJ14" s="165"/>
-      <c r="AM14" s="154"/>
+      <c r="AG14" s="155"/>
+      <c r="AH14" s="165"/>
+      <c r="AI14" s="166"/>
+      <c r="AJ14" s="166"/>
+      <c r="AM14" s="155"/>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="167"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="155" t="n">
+      <c r="A15" s="168"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="156" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="156" t="str">
+      <c r="L15" s="157" t="str">
         <f aca="false">IF(AF12=TRUE(),B12,IF(AF14=TRUE(),B14,""))</f>
         <v/>
       </c>
-      <c r="M15" s="177"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="161" t="str">
+      <c r="M15" s="178"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="162" t="str">
         <f aca="false">IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
-      <c r="R15" s="178"/>
-      <c r="S15" s="173"/>
-      <c r="AB15" s="164"/>
-      <c r="AC15" s="165"/>
-      <c r="AD15" s="165"/>
-      <c r="AE15" s="165"/>
-      <c r="AF15" s="165"/>
-      <c r="AG15" s="154"/>
-      <c r="AK15" s="165" t="n">
+      <c r="R15" s="179"/>
+      <c r="S15" s="174"/>
+      <c r="AB15" s="165"/>
+      <c r="AC15" s="166"/>
+      <c r="AD15" s="166"/>
+      <c r="AE15" s="166"/>
+      <c r="AF15" s="166"/>
+      <c r="AG15" s="155"/>
+      <c r="AK15" s="166" t="n">
         <f aca="false">N15+P15</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="166" t="b">
+      <c r="AL15" s="167" t="b">
         <f aca="false">AND(AJ16=TRUE(),AK15&gt;AK17)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="154"/>
-      <c r="AN15" s="152"/>
-      <c r="AO15" s="152"/>
-      <c r="AP15" s="179"/>
-      <c r="AQ15" s="153"/>
-      <c r="AR15" s="153"/>
+      <c r="AM15" s="155"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="153"/>
+      <c r="AP15" s="180"/>
+      <c r="AQ15" s="154"/>
+      <c r="AR15" s="154"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="167"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="168"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="171" t="str">
+      <c r="A16" s="168"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="169"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="172" t="str">
         <f aca="false">IF(AI16=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="178"/>
-      <c r="T16" s="148" t="s">
+      <c r="Q16" s="182"/>
+      <c r="R16" s="179"/>
+      <c r="T16" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="U16" s="182"/>
-      <c r="V16" s="182"/>
-      <c r="W16" s="182"/>
-      <c r="X16" s="150"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="173"/>
-      <c r="AH16" s="166" t="b">
+      <c r="U16" s="183"/>
+      <c r="V16" s="183"/>
+      <c r="W16" s="183"/>
+      <c r="X16" s="151"/>
+      <c r="AB16" s="174"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="174"/>
+      <c r="AE16" s="174"/>
+      <c r="AF16" s="174"/>
+      <c r="AG16" s="174"/>
+      <c r="AH16" s="167" t="b">
         <f aca="false">AND(N15&lt;&gt;"",N17&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="166" t="b">
+      <c r="AI16" s="167" t="b">
         <f aca="false">AND(AH16=TRUE(),N15=N17)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="166" t="b">
+      <c r="AJ16" s="167" t="b">
         <f aca="false">IF(AH16=FALSE(),FALSE(),OR(AI16=FALSE(),AND(P15&lt;&gt;"",P17&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="170"/>
-      <c r="AL16" s="170"/>
-      <c r="AM16" s="151"/>
+      <c r="AK16" s="171"/>
+      <c r="AL16" s="171"/>
+      <c r="AM16" s="152"/>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I17" s="167"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="155" t="n">
+      <c r="I17" s="168"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="156" t="n">
         <v>4</v>
       </c>
-      <c r="L17" s="156" t="str">
+      <c r="L17" s="157" t="str">
         <f aca="false">IF(AF18=TRUE(),B18,IF(AF20=TRUE(),B20,""))</f>
         <v/>
       </c>
-      <c r="M17" s="177"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="172" t="str">
+      <c r="M17" s="178"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="173" t="str">
         <f aca="false">IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
-      <c r="R17" s="178"/>
-      <c r="AB17" s="164"/>
-      <c r="AC17" s="165"/>
-      <c r="AD17" s="165"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="164"/>
-      <c r="AI17" s="165"/>
-      <c r="AJ17" s="165"/>
-      <c r="AK17" s="165" t="n">
+      <c r="R17" s="179"/>
+      <c r="AB17" s="165"/>
+      <c r="AC17" s="166"/>
+      <c r="AD17" s="166"/>
+      <c r="AG17" s="152"/>
+      <c r="AH17" s="165"/>
+      <c r="AI17" s="166"/>
+      <c r="AJ17" s="166"/>
+      <c r="AK17" s="166" t="n">
         <f aca="false">N17+P17</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="166" t="b">
+      <c r="AL17" s="167" t="b">
         <f aca="false">AND(AJ16=TRUE(),AK17&gt;AK15)</f>
         <v>0</v>
       </c>
-      <c r="AM17" s="151"/>
+      <c r="AM17" s="152"/>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="155" t="n">
+      <c r="A18" s="156" t="n">
         <v>5</v>
       </c>
-      <c r="B18" s="156" t="str">
+      <c r="B18" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A18,20)&gt;0,INDEX(Uitslag!C$9:C$20,A18,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="156" t="str">
+      <c r="C18" s="158"/>
+      <c r="D18" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A18,20)&gt;0,INDEX(Uitslag!D$9:D$20,A18,1),"")</f>
         <v/>
       </c>
-      <c r="E18" s="151"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="161" t="str">
+      <c r="E18" s="152"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="162" t="str">
         <f aca="false">IF(AND(ABS(H18-H20)&lt;1,H18&gt;H20),"*","")</f>
         <v/>
       </c>
-      <c r="J18" s="162"/>
-      <c r="K18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="151"/>
-      <c r="U18" s="151"/>
-      <c r="V18" s="154" t="s">
+      <c r="J18" s="163"/>
+      <c r="K18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="152"/>
+      <c r="T18" s="152"/>
+      <c r="U18" s="152"/>
+      <c r="V18" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154" t="s">
+      <c r="W18" s="155"/>
+      <c r="X18" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
-      <c r="AE18" s="165" t="n">
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="155"/>
+      <c r="AA18" s="155"/>
+      <c r="AE18" s="166" t="n">
         <f aca="false">F18+H18</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="166" t="b">
+      <c r="AF18" s="167" t="b">
         <f aca="false">AND(AD19=TRUE(),AE18&gt;AE20)</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="173"/>
-      <c r="AM18" s="151"/>
-      <c r="AN18" s="152" t="s">
+      <c r="AG18" s="174"/>
+      <c r="AM18" s="152"/>
+      <c r="AN18" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="AO18" s="152" t="s">
+      <c r="AO18" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="AP18" s="179" t="s">
+      <c r="AP18" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="AQ18" s="153" t="s">
+      <c r="AQ18" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="AR18" s="153" t="s">
+      <c r="AR18" s="154" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="89"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171" t="str">
+      <c r="A19" s="90"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="172" t="str">
         <f aca="false">IF(AC19=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I19" s="171"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="178"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="156" t="str">
+      <c r="I19" s="172"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="179"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="157" t="str">
         <f aca="false">IF(AL15=TRUE(),L15,IF(AL17=TRUE(),L17,""))</f>
         <v/>
       </c>
-      <c r="U19" s="177"/>
-      <c r="V19" s="183"/>
-      <c r="W19" s="177"/>
-      <c r="X19" s="184"/>
-      <c r="Y19" s="185" t="str">
+      <c r="U19" s="178"/>
+      <c r="V19" s="184"/>
+      <c r="W19" s="178"/>
+      <c r="X19" s="185"/>
+      <c r="Y19" s="186" t="str">
         <f aca="false">IF(AND(ABS(X19-X21)&lt;1,X19&gt;X21),"*","")</f>
         <v/>
       </c>
-      <c r="Z19" s="173" t="str">
+      <c r="Z19" s="174" t="str">
         <f aca="false">IF(OR(AN20=FALSE(),AQ20=FALSE()),"",IF(AR19=TRUE(),"WINNAAR","2e"))</f>
         <v/>
       </c>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="166" t="b">
+      <c r="AA19" s="174"/>
+      <c r="AB19" s="167" t="b">
         <f aca="false">AND(F18&lt;&gt;"",F20&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="166" t="b">
+      <c r="AC19" s="167" t="b">
         <f aca="false">AND(AB19=TRUE(),F18=F20)</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="166" t="b">
+      <c r="AD19" s="167" t="b">
         <f aca="false">IF(AB19=FALSE(),FALSE(),OR(AC19=FALSE(),AND(H18&lt;&gt;"",H20&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AP19" s="165" t="n">
+      <c r="AP19" s="166" t="n">
         <f aca="false">V19+X19</f>
         <v>0</v>
       </c>
-      <c r="AR19" s="166" t="b">
+      <c r="AR19" s="167" t="b">
         <f aca="false">AP19&gt;AP21</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="155" t="n">
+      <c r="A20" s="156" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="156" t="str">
+      <c r="B20" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A20,20)&gt;0,INDEX(Uitslag!C$9:C$20,A20,1),"BYE")</f>
         <v>team-4092-3-C</v>
       </c>
-      <c r="C20" s="157"/>
-      <c r="D20" s="156" t="str">
+      <c r="C20" s="158"/>
+      <c r="D20" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A20,20)&gt;0,INDEX(Uitslag!D$9:D$20,A20,1),"")</f>
         <v>[4092] Club 4092</v>
       </c>
-      <c r="E20" s="151"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="172" t="str">
+      <c r="E20" s="152"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="173" t="str">
         <f aca="false">IF(AND(ABS(H18-H20)&lt;1,H20&gt;H18),"*","")</f>
         <v/>
       </c>
-      <c r="J20" s="162"/>
-      <c r="K20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="178"/>
-      <c r="T20" s="180"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="186"/>
-      <c r="X20" s="171" t="str">
+      <c r="J20" s="163"/>
+      <c r="K20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="179"/>
+      <c r="T20" s="181"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="187"/>
+      <c r="W20" s="187"/>
+      <c r="X20" s="172" t="str">
         <f aca="false">IF(AO20=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="Y20" s="181"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="151"/>
-      <c r="AB20" s="173"/>
-      <c r="AC20" s="173"/>
-      <c r="AD20" s="173"/>
-      <c r="AE20" s="165" t="n">
+      <c r="Y20" s="182"/>
+      <c r="Z20" s="152"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="174"/>
+      <c r="AC20" s="174"/>
+      <c r="AD20" s="174"/>
+      <c r="AE20" s="166" t="n">
         <f aca="false">F20+H20</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="166" t="b">
+      <c r="AF20" s="167" t="b">
         <f aca="false">AND(AD19=TRUE(),AE20&gt;AE18)</f>
         <v>0</v>
       </c>
-      <c r="AN20" s="166" t="b">
+      <c r="AN20" s="167" t="b">
         <f aca="false">AND(V19&lt;&gt;"",V21&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AO20" s="166" t="b">
+      <c r="AO20" s="167" t="b">
         <f aca="false">AND(AN20=TRUE(),V19=V21)</f>
         <v>0</v>
       </c>
-      <c r="AQ20" s="166" t="b">
+      <c r="AQ20" s="167" t="b">
         <f aca="false">OR(AND(X19&lt;&gt;"",X21&lt;&gt;""),AO20=FALSE())</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="187"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="178"/>
-      <c r="S21" s="155"/>
-      <c r="T21" s="156" t="str">
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="179"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="157" t="str">
         <f aca="false">IF(AL27=TRUE(),L27,IF(AL29=TRUE(),L29,""))</f>
         <v/>
       </c>
-      <c r="U21" s="177"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="177"/>
-      <c r="X21" s="184"/>
-      <c r="Y21" s="188" t="str">
+      <c r="U21" s="178"/>
+      <c r="V21" s="184"/>
+      <c r="W21" s="178"/>
+      <c r="X21" s="185"/>
+      <c r="Y21" s="189" t="str">
         <f aca="false">IF(AND(ABS(X19-X21)&lt;1,X21&gt;X19),"*","")</f>
         <v/>
       </c>
-      <c r="Z21" s="173" t="str">
+      <c r="Z21" s="174" t="str">
         <f aca="false">IF(OR(AN20=FALSE(),AQ20=FALSE()),"",IF(AR21=TRUE(),"WINNAAR","2e"))</f>
         <v/>
       </c>
-      <c r="AA21" s="173"/>
-      <c r="AB21" s="164"/>
-      <c r="AC21" s="165"/>
-      <c r="AD21" s="165"/>
-      <c r="AP21" s="165" t="n">
+      <c r="AA21" s="174"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="166"/>
+      <c r="AD21" s="166"/>
+      <c r="AP21" s="166" t="n">
         <f aca="false">V21+X21</f>
         <v>0</v>
       </c>
-      <c r="AQ21" s="165"/>
-      <c r="AR21" s="166" t="b">
+      <c r="AQ21" s="166"/>
+      <c r="AR21" s="167" t="b">
         <f aca="false">AP21&gt;AP19</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="178"/>
-      <c r="Z22" s="173"/>
-      <c r="AA22" s="173"/>
-      <c r="AB22" s="164"/>
-      <c r="AC22" s="165"/>
-      <c r="AD22" s="165"/>
-      <c r="AE22" s="165"/>
-      <c r="AF22" s="165"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="179"/>
+      <c r="Z22" s="174"/>
+      <c r="AA22" s="174"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="166"/>
+      <c r="AD22" s="166"/>
+      <c r="AE22" s="166"/>
+      <c r="AF22" s="166"/>
     </row>
     <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="167"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="178"/>
-      <c r="AE23" s="170"/>
-      <c r="AF23" s="170"/>
-      <c r="AH23" s="152"/>
-      <c r="AI23" s="152"/>
-      <c r="AJ23" s="170"/>
-      <c r="AK23" s="170"/>
-      <c r="AL23" s="170"/>
+      <c r="I23" s="168"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="179"/>
+      <c r="AE23" s="171"/>
+      <c r="AF23" s="171"/>
+      <c r="AH23" s="153"/>
+      <c r="AI23" s="153"/>
+      <c r="AJ23" s="171"/>
+      <c r="AK23" s="171"/>
+      <c r="AL23" s="171"/>
     </row>
     <row r="24" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="155" t="n">
+      <c r="A24" s="156" t="n">
         <v>3</v>
       </c>
-      <c r="B24" s="156" t="str">
+      <c r="B24" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A24,20)&gt;0,INDEX(Uitslag!C$9:C$20,A24,1),"BYE")</f>
         <v>team-4091-1-C</v>
       </c>
-      <c r="C24" s="157"/>
-      <c r="D24" s="156" t="str">
+      <c r="C24" s="158"/>
+      <c r="D24" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A24,20)&gt;0,INDEX(Uitslag!D$9:D$20,A24,1),"")</f>
         <v>[4091] Club 4091</v>
       </c>
-      <c r="E24" s="151"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161" t="str">
+      <c r="E24" s="152"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="162" t="str">
         <f aca="false">IF(AND(ABS(H24-H26)&lt;1,H24&gt;H26),"*","")</f>
         <v/>
       </c>
-      <c r="J24" s="190"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="178"/>
-      <c r="AB24" s="164"/>
-      <c r="AC24" s="165"/>
-      <c r="AD24" s="165"/>
-      <c r="AE24" s="165" t="n">
+      <c r="J24" s="191"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="179"/>
+      <c r="AB24" s="165"/>
+      <c r="AC24" s="166"/>
+      <c r="AD24" s="166"/>
+      <c r="AE24" s="166" t="n">
         <f aca="false">F24+H24</f>
         <v>0</v>
       </c>
-      <c r="AF24" s="166" t="b">
+      <c r="AF24" s="167" t="b">
         <f aca="false">AND(AD25=TRUE(),AE24&gt;AE26)</f>
         <v>0</v>
       </c>
-      <c r="AH24" s="164"/>
-      <c r="AI24" s="165"/>
-      <c r="AJ24" s="165"/>
+      <c r="AH24" s="165"/>
+      <c r="AI24" s="166"/>
+      <c r="AJ24" s="166"/>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171" t="str">
+      <c r="A25" s="168"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="172" t="str">
         <f aca="false">IF(AC25=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I25" s="171"/>
-      <c r="J25" s="190"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="178"/>
-      <c r="AB25" s="166" t="b">
+      <c r="I25" s="172"/>
+      <c r="J25" s="191"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="179"/>
+      <c r="AB25" s="167" t="b">
         <f aca="false">AND(F24&lt;&gt;"",F26&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="166" t="b">
+      <c r="AC25" s="167" t="b">
         <f aca="false">AND(AB25=TRUE(),F24=F26)</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="166" t="b">
+      <c r="AD25" s="167" t="b">
         <f aca="false">IF(AB25=FALSE(),FALSE(),OR(AC25=FALSE(),AND(H24&lt;&gt;"",H26&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="173"/>
-      <c r="AF25" s="173"/>
-      <c r="AK25" s="170"/>
-      <c r="AL25" s="170"/>
+      <c r="AE25" s="174"/>
+      <c r="AF25" s="174"/>
+      <c r="AK25" s="171"/>
+      <c r="AL25" s="171"/>
     </row>
     <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="155" t="n">
+      <c r="A26" s="156" t="n">
         <v>6</v>
       </c>
-      <c r="B26" s="156" t="str">
+      <c r="B26" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A26,20)&gt;0,INDEX(Uitslag!C$9:C$20,A26,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C26" s="157"/>
-      <c r="D26" s="156" t="str">
+      <c r="C26" s="158"/>
+      <c r="D26" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A26,20)&gt;0,INDEX(Uitslag!D$9:D$20,A26,1),"")</f>
         <v/>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="172" t="str">
+      <c r="E26" s="152"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="173" t="str">
         <f aca="false">IF(AND(ABS(H24-H26)&lt;1,H26&gt;H24),"*","")</f>
         <v/>
       </c>
-      <c r="J26" s="190"/>
-      <c r="L26" s="180"/>
-      <c r="N26" s="154" t="s">
+      <c r="J26" s="191"/>
+      <c r="L26" s="181"/>
+      <c r="N26" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="O26" s="151"/>
-      <c r="P26" s="154" t="s">
+      <c r="O26" s="152"/>
+      <c r="P26" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="178"/>
-      <c r="AB26" s="164"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="165"/>
-      <c r="AE26" s="165" t="n">
+      <c r="Q26" s="164"/>
+      <c r="R26" s="179"/>
+      <c r="AB26" s="165"/>
+      <c r="AC26" s="166"/>
+      <c r="AD26" s="166"/>
+      <c r="AE26" s="166" t="n">
         <f aca="false">F26+H26</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="166" t="b">
+      <c r="AF26" s="167" t="b">
         <f aca="false">AND(AD25=TRUE(),AE26&gt;AE24)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="152" t="s">
+      <c r="AH26" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="AI26" s="152" t="s">
+      <c r="AI26" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="AJ26" s="153" t="s">
+      <c r="AJ26" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="AK26" s="152" t="s">
+      <c r="AK26" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="AL26" s="152" t="s">
+      <c r="AL26" s="153" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="167"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="155" t="n">
+      <c r="A27" s="168"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="156" t="n">
         <v>3</v>
       </c>
-      <c r="L27" s="156" t="str">
+      <c r="L27" s="157" t="str">
         <f aca="false">IF(AF24=TRUE(),B24,IF(AF26=TRUE(),B26,""))</f>
         <v/>
       </c>
-      <c r="M27" s="177"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="164"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="161" t="str">
+      <c r="M27" s="178"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="162" t="str">
         <f aca="false">IF(AND(ABS(P27-P29)&lt;1,P27&gt;P29),"*","")</f>
         <v/>
       </c>
-      <c r="R27" s="178"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AE27" s="170"/>
-      <c r="AF27" s="170"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="165" t="n">
+      <c r="R27" s="179"/>
+      <c r="Z27" s="152"/>
+      <c r="AA27" s="152"/>
+      <c r="AE27" s="171"/>
+      <c r="AF27" s="171"/>
+      <c r="AG27" s="152"/>
+      <c r="AH27" s="152"/>
+      <c r="AI27" s="152"/>
+      <c r="AJ27" s="152"/>
+      <c r="AK27" s="166" t="n">
         <f aca="false">N27+P27</f>
         <v>0</v>
       </c>
-      <c r="AL27" s="166" t="b">
+      <c r="AL27" s="167" t="b">
         <f aca="false">AND(AJ28=TRUE(),AK27&gt;AK29)</f>
         <v>0</v>
       </c>
-      <c r="AM27" s="151"/>
+      <c r="AM27" s="152"/>
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="167"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="L28" s="168"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="171" t="str">
+      <c r="A28" s="168"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="L28" s="169"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="172" t="str">
         <f aca="false">IF(AI28=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="178"/>
-      <c r="T28" s="148" t="s">
+      <c r="Q28" s="182"/>
+      <c r="R28" s="179"/>
+      <c r="T28" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="U28" s="182"/>
-      <c r="V28" s="182"/>
-      <c r="W28" s="182"/>
-      <c r="X28" s="150"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="165"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="165"/>
-      <c r="AE28" s="170"/>
-      <c r="AF28" s="170"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="166" t="b">
+      <c r="U28" s="183"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="152"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="166"/>
+      <c r="AC28" s="166"/>
+      <c r="AD28" s="166"/>
+      <c r="AE28" s="171"/>
+      <c r="AF28" s="171"/>
+      <c r="AG28" s="152"/>
+      <c r="AH28" s="167" t="b">
         <f aca="false">AND(N27&lt;&gt;"",N29&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="166" t="b">
+      <c r="AI28" s="167" t="b">
         <f aca="false">AND(AH28=TRUE(),N27=N29)</f>
         <v>0</v>
       </c>
-      <c r="AJ28" s="166" t="b">
+      <c r="AJ28" s="167" t="b">
         <f aca="false">IF(AH28=FALSE(),FALSE(),OR(AI28=FALSE(),AND(P27&lt;&gt;"",P29&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="151"/>
-      <c r="AM28" s="151"/>
+      <c r="AK28" s="152"/>
+      <c r="AL28" s="152"/>
+      <c r="AM28" s="152"/>
     </row>
     <row r="29" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="167"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="155" t="n">
+      <c r="I29" s="168"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="156" t="n">
         <v>2</v>
       </c>
-      <c r="L29" s="156" t="str">
+      <c r="L29" s="157" t="str">
         <f aca="false">IF(AF30=TRUE(),B30,IF(AF32=TRUE(),B32,""))</f>
         <v/>
       </c>
-      <c r="M29" s="177"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="172" t="str">
+      <c r="M29" s="178"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="173" t="str">
         <f aca="false">IF(AND(ABS(P27-P29)&lt;1,P29&gt;P27),"*","")</f>
         <v/>
       </c>
-      <c r="R29" s="178"/>
-      <c r="AB29" s="164"/>
-      <c r="AC29" s="165"/>
-      <c r="AD29" s="165"/>
-      <c r="AK29" s="165" t="n">
+      <c r="R29" s="179"/>
+      <c r="AB29" s="165"/>
+      <c r="AC29" s="166"/>
+      <c r="AD29" s="166"/>
+      <c r="AK29" s="166" t="n">
         <f aca="false">N29+P29</f>
         <v>0</v>
       </c>
-      <c r="AL29" s="166" t="b">
+      <c r="AL29" s="167" t="b">
         <f aca="false">AND(AJ28=TRUE(),AK29&gt;AK27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="155" t="n">
+      <c r="A30" s="156" t="n">
         <v>7</v>
       </c>
-      <c r="B30" s="156" t="str">
+      <c r="B30" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A30,20)&gt;0,INDEX(Uitslag!C$9:C$20,A30,1),"BYE")</f>
         <v>BYE</v>
       </c>
-      <c r="C30" s="157"/>
-      <c r="D30" s="156" t="str">
+      <c r="C30" s="158"/>
+      <c r="D30" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A30,20)&gt;0,INDEX(Uitslag!D$9:D$20,A30,1),"")</f>
         <v/>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="161" t="str">
+      <c r="E30" s="152"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="162" t="str">
         <f aca="false">IF(AND(ABS(H30-H32)&lt;1,H30&gt;H32),"*","")</f>
         <v/>
       </c>
-      <c r="J30" s="190"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="178"/>
-      <c r="T30" s="151"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="154" t="s">
+      <c r="J30" s="191"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="179"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="W30" s="154"/>
-      <c r="X30" s="154" t="s">
+      <c r="W30" s="155"/>
+      <c r="X30" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="Y30" s="154"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="173"/>
-      <c r="AE30" s="165" t="n">
+      <c r="Y30" s="155"/>
+      <c r="AB30" s="174"/>
+      <c r="AC30" s="174"/>
+      <c r="AD30" s="174"/>
+      <c r="AE30" s="166" t="n">
         <f aca="false">F30+H30</f>
         <v>0</v>
       </c>
-      <c r="AF30" s="166" t="b">
+      <c r="AF30" s="167" t="b">
         <f aca="false">AND(AD31=TRUE(),AE30&gt;AE32)</f>
         <v>0</v>
       </c>
-      <c r="AN30" s="152" t="s">
+      <c r="AN30" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="AO30" s="152" t="s">
+      <c r="AO30" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="AP30" s="179" t="s">
+      <c r="AP30" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="AQ30" s="153" t="s">
+      <c r="AQ30" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="AR30" s="153" t="s">
+      <c r="AR30" s="154" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="167"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="171" t="str">
+      <c r="A31" s="168"/>
+      <c r="B31" s="169"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="172" t="str">
         <f aca="false">IF(AC31=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I31" s="171"/>
-      <c r="J31" s="190"/>
-      <c r="R31" s="178"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="156" t="str">
+      <c r="I31" s="172"/>
+      <c r="J31" s="191"/>
+      <c r="R31" s="179"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="157" t="str">
         <f aca="false">IF(AL15=TRUE(),L17,IF(AL17=TRUE(),L15,""))</f>
         <v/>
       </c>
-      <c r="U31" s="177"/>
-      <c r="V31" s="183"/>
-      <c r="W31" s="177"/>
-      <c r="X31" s="184"/>
-      <c r="Y31" s="185" t="str">
+      <c r="U31" s="178"/>
+      <c r="V31" s="184"/>
+      <c r="W31" s="178"/>
+      <c r="X31" s="185"/>
+      <c r="Y31" s="186" t="str">
         <f aca="false">IF(AND(ABS(X31-X33)&lt;1,X31&gt;X33),"*","")</f>
         <v/>
       </c>
-      <c r="Z31" s="173" t="str">
+      <c r="Z31" s="174" t="str">
         <f aca="false">IF(OR(AN32=FALSE(),AQ32=FALSE()),"",IF(AR31=TRUE(),"3e","4e"))</f>
         <v/>
       </c>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="166" t="b">
+      <c r="AA31" s="174"/>
+      <c r="AB31" s="167" t="b">
         <f aca="false">AND(F30&lt;&gt;"",F32&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AC31" s="166" t="b">
+      <c r="AC31" s="167" t="b">
         <f aca="false">AND(AB31=TRUE(),F30=F32)</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="166" t="b">
+      <c r="AD31" s="167" t="b">
         <f aca="false">IF(AB31=FALSE(),FALSE(),OR(AC31=FALSE(),AND(H30&lt;&gt;"",H32&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="AP31" s="165" t="n">
+      <c r="AP31" s="166" t="n">
         <f aca="false">V31+X31</f>
         <v>0</v>
       </c>
-      <c r="AR31" s="166" t="b">
+      <c r="AR31" s="167" t="b">
         <f aca="false">AP31&gt;AP33</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="155" t="n">
+      <c r="A32" s="156" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="156" t="str">
+      <c r="B32" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A32,20)&gt;0,INDEX(Uitslag!C$9:C$20,A32,1),"BYE")</f>
         <v>team-4092-2-C</v>
       </c>
-      <c r="C32" s="157"/>
-      <c r="D32" s="156" t="str">
+      <c r="C32" s="158"/>
+      <c r="D32" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A32,20)&gt;0,INDEX(Uitslag!D$9:D$20,A32,1),"")</f>
         <v>[4092] Club 4092</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="172" t="str">
+      <c r="E32" s="152"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="173" t="str">
         <f aca="false">IF(AND(ABS(H30-H32)&lt;1,H32&gt;H30),"*","")</f>
         <v/>
       </c>
-      <c r="J32" s="190"/>
-      <c r="R32" s="178"/>
-      <c r="T32" s="180"/>
-      <c r="U32" s="151"/>
-      <c r="V32" s="186"/>
-      <c r="W32" s="186"/>
-      <c r="X32" s="171" t="str">
+      <c r="J32" s="191"/>
+      <c r="R32" s="179"/>
+      <c r="T32" s="181"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="187"/>
+      <c r="W32" s="187"/>
+      <c r="X32" s="172" t="str">
         <f aca="false">IF(AO32=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="Y32" s="181"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="154"/>
-      <c r="AC32" s="154"/>
-      <c r="AD32" s="154"/>
-      <c r="AE32" s="165" t="n">
+      <c r="Y32" s="182"/>
+      <c r="Z32" s="152"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="166" t="n">
         <f aca="false">F32+H32</f>
         <v>0</v>
       </c>
-      <c r="AF32" s="166" t="b">
+      <c r="AF32" s="167" t="b">
         <f aca="false">AND(AD31=TRUE(),AE32&gt;AE30)</f>
         <v>0</v>
       </c>
-      <c r="AG32" s="154"/>
-      <c r="AH32" s="154"/>
-      <c r="AI32" s="154"/>
-      <c r="AJ32" s="154"/>
-      <c r="AK32" s="154"/>
-      <c r="AL32" s="154"/>
-      <c r="AM32" s="154"/>
-      <c r="AN32" s="166" t="b">
+      <c r="AG32" s="155"/>
+      <c r="AH32" s="155"/>
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="155"/>
+      <c r="AK32" s="155"/>
+      <c r="AL32" s="155"/>
+      <c r="AM32" s="155"/>
+      <c r="AN32" s="167" t="b">
         <f aca="false">AND(V31&lt;&gt;"",V33&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AO32" s="166" t="b">
+      <c r="AO32" s="167" t="b">
         <f aca="false">AND(AN32=TRUE(),V31=V33)</f>
         <v>0</v>
       </c>
-      <c r="AQ32" s="166" t="b">
+      <c r="AQ32" s="167" t="b">
         <f aca="false">OR(AND(X31&lt;&gt;"",X33&lt;&gt;""),AO32=FALSE())</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="167"/>
-      <c r="R33" s="178"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="156" t="str">
+      <c r="I33" s="168"/>
+      <c r="R33" s="179"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="157" t="str">
         <f aca="false">IF(AL27=TRUE(),L29,IF(AL29=TRUE(),L27,""))</f>
         <v/>
       </c>
-      <c r="U33" s="177"/>
-      <c r="V33" s="183"/>
-      <c r="W33" s="177"/>
-      <c r="X33" s="184"/>
-      <c r="Y33" s="188" t="str">
+      <c r="U33" s="178"/>
+      <c r="V33" s="184"/>
+      <c r="W33" s="178"/>
+      <c r="X33" s="185"/>
+      <c r="Y33" s="189" t="str">
         <f aca="false">IF(AND(ABS(X31-X33)&lt;1,X33&gt;X31),"*","")</f>
         <v/>
       </c>
-      <c r="Z33" s="173" t="str">
+      <c r="Z33" s="174" t="str">
         <f aca="false">IF(OR(AN32=FALSE(),AQ32=FALSE()),"",IF(AR33=TRUE(),"3e","4e"))</f>
         <v/>
       </c>
-      <c r="AA33" s="173"/>
-      <c r="AB33" s="173"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="173"/>
-      <c r="AE33" s="173"/>
-      <c r="AF33" s="173"/>
-      <c r="AG33" s="173"/>
-      <c r="AH33" s="173"/>
-      <c r="AI33" s="173"/>
-      <c r="AJ33" s="151"/>
-      <c r="AK33" s="151"/>
-      <c r="AL33" s="151"/>
-      <c r="AM33" s="151"/>
-      <c r="AP33" s="165" t="n">
+      <c r="AA33" s="174"/>
+      <c r="AB33" s="174"/>
+      <c r="AC33" s="174"/>
+      <c r="AD33" s="174"/>
+      <c r="AE33" s="174"/>
+      <c r="AF33" s="174"/>
+      <c r="AG33" s="174"/>
+      <c r="AH33" s="174"/>
+      <c r="AI33" s="174"/>
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="152"/>
+      <c r="AL33" s="152"/>
+      <c r="AM33" s="152"/>
+      <c r="AP33" s="166" t="n">
         <f aca="false">V33+X33</f>
         <v>0</v>
       </c>
-      <c r="AR33" s="166" t="b">
+      <c r="AR33" s="167" t="b">
         <f aca="false">AP33&gt;AP31</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="167"/>
-      <c r="AB34" s="151"/>
-      <c r="AC34" s="151"/>
-      <c r="AD34" s="151"/>
-      <c r="AE34" s="151"/>
-      <c r="AF34" s="151"/>
-      <c r="AG34" s="151"/>
-      <c r="AH34" s="151"/>
-      <c r="AI34" s="151"/>
-      <c r="AJ34" s="151"/>
-      <c r="AK34" s="151"/>
-      <c r="AL34" s="151"/>
-      <c r="AM34" s="151"/>
+      <c r="I34" s="168"/>
+      <c r="AB34" s="152"/>
+      <c r="AC34" s="152"/>
+      <c r="AD34" s="152"/>
+      <c r="AE34" s="152"/>
+      <c r="AF34" s="152"/>
+      <c r="AG34" s="152"/>
+      <c r="AH34" s="152"/>
+      <c r="AI34" s="152"/>
+      <c r="AJ34" s="152"/>
+      <c r="AK34" s="152"/>
+      <c r="AL34" s="152"/>
+      <c r="AM34" s="152"/>
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="167"/>
-      <c r="AB35" s="173"/>
-      <c r="AC35" s="173"/>
-      <c r="AD35" s="173"/>
-      <c r="AE35" s="173"/>
-      <c r="AF35" s="173"/>
-      <c r="AG35" s="173"/>
-      <c r="AH35" s="173"/>
-      <c r="AI35" s="173"/>
-      <c r="AJ35" s="151"/>
-      <c r="AK35" s="151"/>
-      <c r="AL35" s="151"/>
-      <c r="AM35" s="151"/>
-      <c r="AN35" s="165"/>
-      <c r="AO35" s="173"/>
-      <c r="AQ35" s="165"/>
+      <c r="I35" s="168"/>
+      <c r="AB35" s="174"/>
+      <c r="AC35" s="174"/>
+      <c r="AD35" s="174"/>
+      <c r="AE35" s="174"/>
+      <c r="AF35" s="174"/>
+      <c r="AG35" s="174"/>
+      <c r="AH35" s="174"/>
+      <c r="AI35" s="174"/>
+      <c r="AJ35" s="152"/>
+      <c r="AK35" s="152"/>
+      <c r="AL35" s="152"/>
+      <c r="AM35" s="152"/>
+      <c r="AN35" s="166"/>
+      <c r="AO35" s="174"/>
+      <c r="AQ35" s="166"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z39" s="147"/>
-      <c r="AA39" s="147"/>
-      <c r="AB39" s="147"/>
-      <c r="AC39" s="147"/>
-      <c r="AD39" s="147"/>
-      <c r="AE39" s="147"/>
-      <c r="AF39" s="147"/>
-      <c r="AG39" s="147"/>
-      <c r="AH39" s="147"/>
-      <c r="AI39" s="147"/>
+      <c r="Z39" s="148"/>
+      <c r="AA39" s="148"/>
+      <c r="AB39" s="148"/>
+      <c r="AC39" s="148"/>
+      <c r="AD39" s="148"/>
+      <c r="AE39" s="148"/>
+      <c r="AF39" s="148"/>
+      <c r="AG39" s="148"/>
+      <c r="AH39" s="148"/>
+      <c r="AI39" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6879,684 +6883,684 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55859375" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="77" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="77" width="44.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="77" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="77" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="77" width="1.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="77" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="77" width="1.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="77" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="77" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="147" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="77" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="77" width="47.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="77" width="1.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="77" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="77" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="77" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="77" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="77" width="21.66"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="77" width="21.66"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="20" style="77" width="10.78"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="23" min="23" style="77" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="77" width="11.22"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="25" min="25" style="77" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="26" style="77" width="10.78"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="28" style="77" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="77" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="31" style="77" width="1.33"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16384" min="33" style="77" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="78" width="2.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="78" width="44.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="78" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="78" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="78" width="1.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="78" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="78" width="1.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="78" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="78" width="2.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="148" width="2.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="78" width="2.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="78" width="47.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="78" width="1.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="78" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="78" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="78" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="78" width="2.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="78" width="21.66"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="78" width="21.66"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="20" style="78" width="10.78"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="23" min="23" style="78" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="78" width="11.22"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="25" min="25" style="78" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="26" style="78" width="10.78"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="28" style="78" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="30" min="30" style="78" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="31" style="78" width="1.33"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16384" min="33" style="78" width="9.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="145" t="str">
+      <c r="B4" s="146" t="str">
         <f aca="false">'Deelnemers en Scores'!B2</f>
         <v>BK Indoor Teams, Compound klasse X</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J6" s="152"/>
-      <c r="K6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="151"/>
-      <c r="Y6" s="151"/>
-      <c r="Z6" s="151"/>
-      <c r="AA6" s="151"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="150"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="173"/>
-      <c r="T7" s="164"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="151"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="174"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J8" s="152"/>
-      <c r="K8" s="187"/>
-      <c r="W8" s="170"/>
-      <c r="X8" s="170"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="188"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J9" s="152"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="179"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-    </row>
-    <row r="10" s="77" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="F10" s="154" t="s">
+      <c r="J9" s="153"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="180"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
+    </row>
+    <row r="10" s="78" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="F10" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="151"/>
-      <c r="H10" s="154" t="s">
+      <c r="G10" s="152"/>
+      <c r="H10" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="152" t="s">
+      <c r="T10" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="U10" s="152" t="s">
+      <c r="U10" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="V10" s="153" t="s">
+      <c r="V10" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="W10" s="152" t="s">
+      <c r="W10" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="X10" s="152" t="s">
+      <c r="X10" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="Y10" s="151"/>
+      <c r="Y10" s="152"/>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="155" t="n">
+      <c r="A11" s="156" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="156" t="str">
+      <c r="B11" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A11,20)&gt;0,INDEX(Uitslag!C$9:C$20,A11,1),"BYE")</f>
         <v>team-4091-2-C</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="156" t="str">
+      <c r="C11" s="158"/>
+      <c r="D11" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A11,20)&gt;0,INDEX(Uitslag!D$9:D$20,A11,1),"")</f>
         <v>[4091] Club 4091</v>
       </c>
-      <c r="E11" s="177"/>
-      <c r="F11" s="183" t="n">
+      <c r="E11" s="178"/>
+      <c r="F11" s="184" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="164"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="161" t="str">
+      <c r="G11" s="165"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="162" t="str">
         <f aca="false">IF(AND(ABS(H11-H13)&lt;1,H11&gt;H13),"*","")</f>
         <v/>
       </c>
-      <c r="J11" s="192"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="165"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="165" t="n">
+      <c r="J11" s="193"/>
+      <c r="R11" s="152"/>
+      <c r="S11" s="152"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="166" t="n">
         <f aca="false">F11+H11</f>
         <v>4</v>
       </c>
-      <c r="X11" s="166" t="b">
+      <c r="X11" s="167" t="b">
         <f aca="false">AND(V12=TRUE(),W11&gt;W13)</f>
         <v>1</v>
       </c>
-      <c r="Y11" s="151"/>
+      <c r="Y11" s="152"/>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="167"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="171" t="str">
+      <c r="A12" s="168"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172" t="str">
         <f aca="false">IF(U12=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I12" s="181"/>
-      <c r="J12" s="192"/>
-      <c r="L12" s="148" t="s">
+      <c r="I12" s="182"/>
+      <c r="J12" s="193"/>
+      <c r="L12" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="150"/>
-      <c r="T12" s="166" t="b">
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="151"/>
+      <c r="T12" s="167" t="b">
         <f aca="false">AND(F11&lt;&gt;"",F13&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="U12" s="166" t="b">
+      <c r="U12" s="167" t="b">
         <f aca="false">AND(T12=TRUE(),F11=F13)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="166" t="b">
+      <c r="V12" s="167" t="b">
         <f aca="false">IF(T12=FALSE(),FALSE(),OR(U12=FALSE(),AND(H11&lt;&gt;"",H13&lt;&gt;"")))</f>
         <v>1</v>
       </c>
-      <c r="W12" s="170"/>
-      <c r="X12" s="170"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="165"/>
-      <c r="AA12" s="173"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="166"/>
+      <c r="AA12" s="174"/>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="155" t="n">
+      <c r="A13" s="156" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="156" t="str">
+      <c r="B13" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A13,20)&gt;0,INDEX(Uitslag!C$9:C$20,A13,1),"BYE")</f>
         <v>team-4092-3-C</v>
       </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="156" t="str">
+      <c r="C13" s="158"/>
+      <c r="D13" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A13,20)&gt;0,INDEX(Uitslag!D$9:D$20,A13,1),"")</f>
         <v>[4092] Club 4092</v>
       </c>
-      <c r="E13" s="177"/>
-      <c r="F13" s="183" t="n">
+      <c r="E13" s="178"/>
+      <c r="F13" s="184" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="164"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="172" t="str">
+      <c r="G13" s="165"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="173" t="str">
         <f aca="false">IF(AND(ABS(H11-H13)&lt;1,H13&gt;H11),"*","")</f>
         <v/>
       </c>
-      <c r="J13" s="192"/>
-      <c r="K13" s="173"/>
-      <c r="T13" s="164"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="165"/>
-      <c r="W13" s="165" t="n">
+      <c r="J13" s="193"/>
+      <c r="K13" s="174"/>
+      <c r="T13" s="165"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="166"/>
+      <c r="W13" s="166" t="n">
         <f aca="false">F13+H13</f>
         <v>2</v>
       </c>
-      <c r="X13" s="166" t="b">
+      <c r="X13" s="167" t="b">
         <f aca="false">AND(V12=TRUE(),W13&gt;W11)</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="146"/>
+      <c r="AB13" s="147"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I14" s="163"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="154" t="s">
+      <c r="I14" s="164"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154" t="s">
+      <c r="O14" s="155"/>
+      <c r="P14" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="Q14" s="154"/>
-      <c r="W14" s="170"/>
-      <c r="X14" s="170"/>
-      <c r="Z14" s="152" t="s">
+      <c r="Q14" s="155"/>
+      <c r="W14" s="171"/>
+      <c r="X14" s="171"/>
+      <c r="Z14" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="AA14" s="152" t="s">
+      <c r="AA14" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="AB14" s="153" t="s">
+      <c r="AB14" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="AC14" s="152" t="s">
+      <c r="AC14" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="AD14" s="152" t="s">
+      <c r="AD14" s="153" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I15" s="163"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="156" t="str">
+      <c r="I15" s="164"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="157" t="str">
         <f aca="false">IF(X11=TRUE(),B11,IF(X13=TRUE(),B13,""))</f>
         <v>team-4091-2-C</v>
       </c>
-      <c r="M15" s="177"/>
-      <c r="N15" s="183" t="n">
+      <c r="M15" s="178"/>
+      <c r="N15" s="184" t="n">
         <v>30</v>
       </c>
-      <c r="O15" s="177"/>
-      <c r="P15" s="184"/>
-      <c r="Q15" s="193" t="str">
+      <c r="O15" s="178"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="194" t="str">
         <f aca="false">IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
-      <c r="R15" s="173" t="str">
+      <c r="R15" s="174" t="str">
         <f aca="false">IF(OR(Z16=FALSE(),AC16=FALSE()),"",IF(AD15=TRUE(),"WINNAAR","2e"))</f>
         <v>WINNAAR</v>
       </c>
-      <c r="S15" s="173"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
-      <c r="V15" s="165"/>
-      <c r="AB15" s="165" t="n">
+      <c r="S15" s="174"/>
+      <c r="T15" s="165"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="166"/>
+      <c r="AB15" s="166" t="n">
         <f aca="false">N15+P15</f>
         <v>30</v>
       </c>
-      <c r="AD15" s="166" t="b">
+      <c r="AD15" s="167" t="b">
         <f aca="false">AB15&gt;AB17</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="163"/>
-      <c r="J16" s="194"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="171" t="str">
+      <c r="I16" s="164"/>
+      <c r="J16" s="195"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
+      <c r="P16" s="172" t="str">
         <f aca="false">IF(AA16=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="Q16" s="181"/>
-      <c r="Z16" s="166" t="b">
+      <c r="Q16" s="182"/>
+      <c r="Z16" s="167" t="b">
         <f aca="false">AND(N15&lt;&gt;"",N17&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="AA16" s="166" t="b">
+      <c r="AA16" s="167" t="b">
         <f aca="false">AND(Z16=TRUE(),N15=N17)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="166" t="b">
+      <c r="AC16" s="167" t="b">
         <f aca="false">OR(AND(P15&lt;&gt;"",P17&lt;&gt;""),AA16=FALSE())</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="167"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="156" t="str">
+      <c r="A17" s="168"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="157" t="str">
         <f aca="false">IF(X20=TRUE(),B20,IF(X22=TRUE(),B22,""))</f>
         <v>team-4092-2-C</v>
       </c>
-      <c r="M17" s="177"/>
-      <c r="N17" s="183" t="n">
+      <c r="M17" s="178"/>
+      <c r="N17" s="184" t="n">
         <v>29</v>
       </c>
-      <c r="O17" s="177"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="195" t="str">
+      <c r="O17" s="178"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="196" t="str">
         <f aca="false">IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
-      <c r="R17" s="173" t="str">
+      <c r="R17" s="174" t="str">
         <f aca="false">IF(OR(Z16=FALSE(),AC16=FALSE()),"",IF(AD17=TRUE(),"WINNAAR","2e"))</f>
         <v>2e</v>
       </c>
-      <c r="S17" s="173"/>
-      <c r="AB17" s="165" t="n">
+      <c r="S17" s="174"/>
+      <c r="AB17" s="166" t="n">
         <f aca="false">N17+P17</f>
         <v>29</v>
       </c>
-      <c r="AC17" s="165"/>
-      <c r="AD17" s="166" t="b">
+      <c r="AC17" s="166"/>
+      <c r="AD17" s="167" t="b">
         <f aca="false">AB17&gt;AB15</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="167"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="194"/>
-      <c r="Q18" s="163"/>
+      <c r="A18" s="168"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="195"/>
+      <c r="Q18" s="164"/>
     </row>
     <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="167"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="F19" s="154" t="s">
+      <c r="A19" s="168"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="F19" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="154" t="s">
+      <c r="G19" s="152"/>
+      <c r="H19" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="163"/>
-      <c r="J19" s="194"/>
-      <c r="Q19" s="163"/>
-      <c r="T19" s="152" t="s">
+      <c r="I19" s="164"/>
+      <c r="J19" s="195"/>
+      <c r="Q19" s="164"/>
+      <c r="T19" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="U19" s="152" t="s">
+      <c r="U19" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="V19" s="153" t="s">
+      <c r="V19" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="W19" s="152" t="s">
+      <c r="W19" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="X19" s="152" t="s">
+      <c r="X19" s="153" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="155" t="n">
+      <c r="A20" s="156" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="156" t="str">
+      <c r="B20" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A20,20)&gt;0,INDEX(Uitslag!C$9:C$20,A20,1),"BYE")</f>
         <v>team-4091-1-C</v>
       </c>
-      <c r="C20" s="157"/>
-      <c r="D20" s="156" t="str">
+      <c r="C20" s="158"/>
+      <c r="D20" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A20,20)&gt;0,INDEX(Uitslag!D$9:D$20,A20,1),"")</f>
         <v>[4091] Club 4091</v>
       </c>
-      <c r="E20" s="177"/>
-      <c r="F20" s="183" t="n">
+      <c r="E20" s="178"/>
+      <c r="F20" s="184" t="n">
         <v>4</v>
       </c>
-      <c r="G20" s="164"/>
-      <c r="H20" s="191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="161" t="str">
+      <c r="G20" s="165"/>
+      <c r="H20" s="192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="162" t="str">
         <f aca="false">IF(AND(ABS(H20-H22)&lt;1,H20&gt;H22),"*","")</f>
         <v/>
       </c>
-      <c r="J20" s="194"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="165" t="n">
+      <c r="J20" s="195"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="166" t="n">
         <f aca="false">F20+H20</f>
         <v>4</v>
       </c>
-      <c r="X20" s="166" t="b">
+      <c r="X20" s="167" t="b">
         <f aca="false">AND(V21=TRUE(),W20&gt;W22)</f>
         <v>0</v>
       </c>
-      <c r="Y20" s="151"/>
+      <c r="Y20" s="152"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171" t="str">
+      <c r="A21" s="168"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="172" t="str">
         <f aca="false">IF(U21=TRUE(),"SO","")</f>
         <v>SO</v>
       </c>
-      <c r="I21" s="181"/>
-      <c r="J21" s="194"/>
-      <c r="L21" s="148" t="s">
+      <c r="I21" s="182"/>
+      <c r="J21" s="195"/>
+      <c r="L21" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="150"/>
-      <c r="Q21" s="163"/>
-      <c r="T21" s="166" t="b">
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="164"/>
+      <c r="T21" s="167" t="b">
         <f aca="false">AND(F20&lt;&gt;"",F22&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="U21" s="166" t="b">
+      <c r="U21" s="167" t="b">
         <f aca="false">AND(T21=TRUE(),F20=F22)</f>
         <v>1</v>
       </c>
-      <c r="V21" s="166" t="b">
+      <c r="V21" s="167" t="b">
         <f aca="false">IF(T21=FALSE(),FALSE(),OR(U21=FALSE(),AND(H20&lt;&gt;"",H22&lt;&gt;"")))</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="155" t="n">
+      <c r="A22" s="156" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="156" t="str">
+      <c r="B22" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A22,20)&gt;0,INDEX(Uitslag!C$9:C$20,A22,1),"BYE")</f>
         <v>team-4092-2-C</v>
       </c>
-      <c r="C22" s="157"/>
-      <c r="D22" s="156" t="str">
+      <c r="C22" s="158"/>
+      <c r="D22" s="157" t="str">
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A22,20)&gt;0,INDEX(Uitslag!D$9:D$20,A22,1),"")</f>
         <v>[4092] Club 4092</v>
       </c>
-      <c r="E22" s="177"/>
-      <c r="F22" s="183" t="n">
+      <c r="E22" s="178"/>
+      <c r="F22" s="184" t="n">
         <v>4</v>
       </c>
-      <c r="G22" s="164"/>
-      <c r="H22" s="191" t="n">
+      <c r="G22" s="165"/>
+      <c r="H22" s="192" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="172" t="str">
+      <c r="I22" s="173" t="str">
         <f aca="false">IF(AND(ABS(H20-H22)&lt;1,H22&gt;H20),"*","")</f>
         <v/>
       </c>
-      <c r="J22" s="194"/>
-      <c r="Q22" s="163"/>
-      <c r="W22" s="165" t="n">
+      <c r="J22" s="195"/>
+      <c r="Q22" s="164"/>
+      <c r="W22" s="166" t="n">
         <f aca="false">F22+H22</f>
         <v>5</v>
       </c>
-      <c r="X22" s="166" t="b">
+      <c r="X22" s="167" t="b">
         <f aca="false">AND(V21=TRUE(),W22&gt;W20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="194"/>
-      <c r="Q23" s="163"/>
+      <c r="J23" s="195"/>
+      <c r="Q23" s="164"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="194"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="154" t="s">
+      <c r="J24" s="195"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154" t="s">
+      <c r="O24" s="155"/>
+      <c r="P24" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="152" t="s">
+      <c r="Q24" s="155"/>
+      <c r="R24" s="155"/>
+      <c r="S24" s="155"/>
+      <c r="T24" s="155"/>
+      <c r="U24" s="155"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="AA24" s="152" t="s">
+      <c r="AA24" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="AB24" s="153" t="s">
+      <c r="AB24" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="AC24" s="152" t="s">
+      <c r="AC24" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="AD24" s="152" t="s">
+      <c r="AD24" s="153" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="194"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="156" t="str">
+      <c r="J25" s="195"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="157" t="str">
         <f aca="false">IF(X11=TRUE(),B13,IF(X13=TRUE(),B11,""))</f>
         <v>team-4092-3-C</v>
       </c>
-      <c r="M25" s="177"/>
-      <c r="N25" s="183" t="n">
+      <c r="M25" s="178"/>
+      <c r="N25" s="184" t="n">
         <v>28</v>
       </c>
-      <c r="O25" s="177"/>
-      <c r="P25" s="184" t="n">
+      <c r="O25" s="178"/>
+      <c r="P25" s="185" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" s="193" t="str">
+      <c r="Q25" s="194" t="str">
         <f aca="false">IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
         <v/>
       </c>
-      <c r="R25" s="173" t="str">
+      <c r="R25" s="174" t="str">
         <f aca="false">IF(OR(Z26=FALSE(),AC26=FALSE()),"",IF(AD25=TRUE(),"3e","4e"))</f>
         <v>3e</v>
       </c>
-      <c r="S25" s="173"/>
-      <c r="T25" s="173"/>
-      <c r="U25" s="173"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
-      <c r="AB25" s="165" t="n">
+      <c r="S25" s="174"/>
+      <c r="T25" s="174"/>
+      <c r="U25" s="174"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="152"/>
+      <c r="X25" s="152"/>
+      <c r="Y25" s="152"/>
+      <c r="AB25" s="166" t="n">
         <f aca="false">N25+P25</f>
         <v>29</v>
       </c>
-      <c r="AD25" s="166" t="b">
+      <c r="AD25" s="167" t="b">
         <f aca="false">AB25&gt;AB27</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="194"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="171" t="str">
+      <c r="J26" s="195"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="172" t="str">
         <f aca="false">IF(AA26=TRUE(),"SO","")</f>
         <v>SO</v>
       </c>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="166" t="b">
+      <c r="Q26" s="182"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="152"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="167" t="b">
         <f aca="false">AND(N25&lt;&gt;"",N27&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="AA26" s="166" t="b">
+      <c r="AA26" s="167" t="b">
         <f aca="false">AND(Z26=TRUE(),N25=N27)</f>
         <v>1</v>
       </c>
-      <c r="AC26" s="166" t="b">
+      <c r="AC26" s="167" t="b">
         <f aca="false">OR(AND(P25&lt;&gt;"",P27&lt;&gt;""),AA26=FALSE())</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="194"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="156" t="str">
+      <c r="J27" s="195"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="157" t="str">
         <f aca="false">IF(X20=TRUE(),B22,IF(X22=TRUE(),B20,""))</f>
         <v>team-4091-1-C</v>
       </c>
-      <c r="M27" s="177"/>
-      <c r="N27" s="183" t="n">
+      <c r="M27" s="178"/>
+      <c r="N27" s="184" t="n">
         <v>28</v>
       </c>
-      <c r="O27" s="177"/>
-      <c r="P27" s="184" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="195" t="str">
+      <c r="O27" s="178"/>
+      <c r="P27" s="185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="196" t="str">
         <f aca="false">IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
         <v/>
       </c>
-      <c r="R27" s="173" t="str">
+      <c r="R27" s="174" t="str">
         <f aca="false">IF(OR(Z26=FALSE(),AC26=FALSE()),"",IF(AD27=TRUE(),"3e","4e"))</f>
         <v>4e</v>
       </c>
-      <c r="S27" s="173"/>
-      <c r="T27" s="173"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="165"/>
-      <c r="AA27" s="173"/>
-      <c r="AB27" s="165" t="n">
+      <c r="S27" s="174"/>
+      <c r="T27" s="174"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="152"/>
+      <c r="W27" s="152"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="152"/>
+      <c r="Z27" s="166"/>
+      <c r="AA27" s="174"/>
+      <c r="AB27" s="166" t="n">
         <f aca="false">N27+P27</f>
         <v>28</v>
       </c>
-      <c r="AC27" s="165"/>
-      <c r="AD27" s="166" t="b">
+      <c r="AC27" s="166"/>
+      <c r="AD27" s="167" t="b">
         <f aca="false">AB27&gt;AB25</f>
         <v>0</v>
       </c>
@@ -7565,10 +7569,10 @@
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="148"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
